--- a/data/hotels_by_city/Houston/Houston_shard_531.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_531.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56895-d106192-Reviews-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Red-Roof-Inn-Conroe-North-Willis.h151429.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531615802517&amp;cancellable=false&amp;regionId=6134431&amp;vip=false&amp;c=7667e521-1f8a-4477-b7f1-06ef87f612dc&amp;mctc=9&amp;exp_dp=79.99&amp;exp_ts=1531615802997&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1491 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r568298801-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>56895</t>
+  </si>
+  <si>
+    <t>106192</t>
+  </si>
+  <si>
+    <t>568298801</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Won't go back</t>
+  </si>
+  <si>
+    <t>Stayed there on two occasions. Second time on highway side of the building. Terrible road noise kept us up all night. Requested room away from traffic, but no call back from front desk.  Hotel was not busy that night. Put AC on AUTO but runs all night. Rooms are old and smell musty. Supposed to be non-smoking room but had smell of tobacco. Overpriced at $130 a night including taxes. Will use other options next family visit in Willis.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r557149241-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>557149241</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Room was disgusting</t>
+  </si>
+  <si>
+    <t>First we checked in and was given key. Went to room with luggage and opened door to find someone already has room. Went back to desk and was told they shouldnt be there. Was given new key to another room. Take luggage to new room. Towels were filthy, bathroom was filthy, and one pillow case had spots on it. Never again. And for a price of $120.00 for a night. Has an extra charge of $300.00 so they can clean the rooms. HAHA. Good one. Never again.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r523439933-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>523439933</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Stay for safety (Harvey) hurricane!</t>
+  </si>
+  <si>
+    <t>I would like to tell you in our time of need for the safety of our family and animals we evacuated our home! We stayed here 3 days and the staff was amazing!!! The Inn was completely full and they did a great job! I'm very sorry for what they had to endure with some very nasty people! They are pet friendly and a lot of people came with their pets! These poor cleaning ladies had to clean rooms where people let their large dogs use the rooms as complete bathrooms! Their urine and feces everywhere! I am ashamed that we have people in America that live like this and disrespect like this. I truly am scared to know that one day that may be a room I need to be in one day! Sincerely Thank You to all the Staff.....MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I would like to tell you in our time of need for the safety of our family and animals we evacuated our home! We stayed here 3 days and the staff was amazing!!! The Inn was completely full and they did a great job! I'm very sorry for what they had to endure with some very nasty people! They are pet friendly and a lot of people came with their pets! These poor cleaning ladies had to clean rooms where people let their large dogs use the rooms as complete bathrooms! Their urine and feces everywhere! I am ashamed that we have people in America that live like this and disrespect like this. I truly am scared to know that one day that may be a room I need to be in one day! Sincerely Thank You to all the Staff.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r471750873-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>471750873</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Review of Best Western Willis</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient location for Conroe, Texas and The Woodlands and North Houston area.  The staff is very professional, courteous, and helpful.  The appearance of the hotel is extremely pleasant.  The amenities are wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient location for Conroe, Texas and The Woodlands and North Houston area.  The staff is very professional, courteous, and helpful.  The appearance of the hotel is extremely pleasant.  The amenities are wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r468955530-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>468955530</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Expected more for the money.</t>
+  </si>
+  <si>
+    <t>The hotel room had a funky Oder but sinc it was late and we didn't have many options, we stayed.  I am a Best Western rewards member and find most of their hotels to be clean and comfortable.  My experience may have been a result of the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>The hotel room had a funky Oder but sinc it was late and we didn't have many options, we stayed.  I am a Best Western rewards member and find most of their hotels to be clean and comfortable.  My experience may have been a result of the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r467786347-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>467786347</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spur of the moment </t>
+  </si>
+  <si>
+    <t>Got informed of a death in family so a trip to wills Texas was next. When I was young there was really nothing in this town but it has grown. I found a best western on line and booked.  Don't usually stay at them but was very surprised. Bed and pillows very comfy very polite service only draw back is getting in to the place gps will fail you but after 2 loops finally arrived. I would highly recommend for stay clean and great serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Got informed of a death in family so a trip to wills Texas was next. When I was young there was really nothing in this town but it has grown. I found a best western on line and booked.  Don't usually stay at them but was very surprised. Bed and pillows very comfy very polite service only draw back is getting in to the place gps will fail you but after 2 loops finally arrived. I would highly recommend for stay clean and great serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r460046346-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>460046346</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Execellent Stay</t>
+  </si>
+  <si>
+    <t>The rooms are very nice and clean. The beds were comfy and cozy. Breakfast was fresh and hot, had plenty of variety. Staff were friendly and went above and beyond to meet our needs/request. I would recommend to my friends and family when their in the area and defiantly will visit again myself!MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are very nice and clean. The beds were comfy and cozy. Breakfast was fresh and hot, had plenty of variety. Staff were friendly and went above and beyond to meet our needs/request. I would recommend to my friends and family when their in the area and defiantly will visit again myself!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r459065230-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>459065230</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Worst stay ever</t>
+  </si>
+  <si>
+    <t>The entire experience was bad.  The room smelled bad the carpet was dirty the bed had bad sheets, my wife left with bites on her chest,  and the hot water was only warm.Take your money and run to another motel.  They granted a late check out but failed to inform us it was a $25.00 fee.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>BestWesternHotels, Guest Relations Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>The entire experience was bad.  The room smelled bad the carpet was dirty the bed had bad sheets, my wife left with bites on her chest,  and the hot water was only warm.Take your money and run to another motel.  They granted a late check out but failed to inform us it was a $25.00 fee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r455541443-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>455541443</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>WIllis, TX Stay</t>
+  </si>
+  <si>
+    <t>My wife &amp; I stayed at the Best Western Wills on a business trip. The room was spacious and clean. The breakfast bar offered eggs, sausage, bacon, breads, muffins, waffles, French toast, cereal, milk, coffee ( 24 hours ), and juices. It was close to some fast food restaurants and the interstate. The staff was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>My wife &amp; I stayed at the Best Western Wills on a business trip. The room was spacious and clean. The breakfast bar offered eggs, sausage, bacon, breads, muffins, waffles, French toast, cereal, milk, coffee ( 24 hours ), and juices. It was close to some fast food restaurants and the interstate. The staff was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r449452827-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>449452827</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Great location, great room</t>
+  </si>
+  <si>
+    <t>Hard to find anything to complain about this hotel. Parking, service, simply everything was great! very comfortable and clean. Staff was super nice and helpful, breakfast in the morning was very good. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Hard to find anything to complain about this hotel. Parking, service, simply everything was great! very comfortable and clean. Staff was super nice and helpful, breakfast in the morning was very good. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r442305650-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>442305650</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>best western Willis</t>
+  </si>
+  <si>
+    <t>overall quality of room was OK, lock was broken when I checked in and Jessica at front desk was very helpful getting it fixed. the facility is showing it's age and needs revamping, maintenance in the guest areas seemed lacking to me, the room was about what you would expect in a mid range hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>overall quality of room was OK, lock was broken when I checked in and Jessica at front desk was very helpful getting it fixed. the facility is showing it's age and needs revamping, maintenance in the guest areas seemed lacking to me, the room was about what you would expect in a mid range hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r438361123-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>438361123</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, but smells old.</t>
+  </si>
+  <si>
+    <t>For an interstate motel it is ok.Room is dated, furniture &amp; carpet are worn. No pillow top mattress.Nice size TV with 2 HBO channels. Bathroom is clean &amp; towels are fluffy. A/C works well. Free breakfast.All rooms open to the outside. Second floor rooms via stairs only.Chic-filet, Shipley's Donuts &amp; McDonalds close by.Ask for room on west side. Much quieter!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>For an interstate motel it is ok.Room is dated, furniture &amp; carpet are worn. No pillow top mattress.Nice size TV with 2 HBO channels. Bathroom is clean &amp; towels are fluffy. A/C works well. Free breakfast.All rooms open to the outside. Second floor rooms via stairs only.Chic-filet, Shipley's Donuts &amp; McDonalds close by.Ask for room on west side. Much quieter!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r405787108-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>405787108</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Great hotel but needs a bigger parking lot. Loved the huge hot tub and super covetable bed. Friendly staff and helpful. We will be booking our next stay in Willis at the same hotel .   HAPPY HAPPY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel but needs a bigger parking lot. Loved the huge hot tub and super covetable bed. Friendly staff and helpful. We will be booking our next stay in Willis at the same hotel .   HAPPY HAPPY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r401681758-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>401681758</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>First time staying here,it's quiet and not crowded far enough out of Houston to avoid all the traffic but close enough if you need to go there,rooms are nice and clean.if I'm in this part of Texas again I will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>First time staying here,it's quiet and not crowded far enough out of Houston to avoid all the traffic but close enough if you need to go there,rooms are nice and clean.if I'm in this part of Texas again I will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r399795835-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>399795835</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>everything is excellent</t>
+  </si>
+  <si>
+    <t>my stay here at best western is good as always. im getting a good deal on rates. employees are very nice and helpful.  the girls that work the front desk marlin and karina are very sweet and helpful... i have no complaints. i will be using and letting friends know. its a decent hotel to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded August 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2016</t>
+  </si>
+  <si>
+    <t>my stay here at best western is good as always. im getting a good deal on rates. employees are very nice and helpful.  the girls that work the front desk marlin and karina are very sweet and helpful... i have no complaints. i will be using and letting friends know. its a decent hotel to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r392280167-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>392280167</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Nicest hotel in Willis, or only hotel in Willis?</t>
+  </si>
+  <si>
+    <t>Best Western Willis was a fine place to stay. We were in town for a party at a friend's lake house for which there were too many people for us to stay at their house. The hotel was easy to get to, the staff was kind, and all we really needed was a nice bed to sleep in. Plus the cost was great ($80 something, which we split with another couple to be more budget-friendly). Would recommend it to anyone passing through, but didn't 'wow' me.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Best Western Willis was a fine place to stay. We were in town for a party at a friend's lake house for which there were too many people for us to stay at their house. The hotel was easy to get to, the staff was kind, and all we really needed was a nice bed to sleep in. Plus the cost was great ($80 something, which we split with another couple to be more budget-friendly). Would recommend it to anyone passing through, but didn't 'wow' me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r391416508-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>391416508</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Best Western Willis...Best Choice</t>
+  </si>
+  <si>
+    <t>We went to Willis for a family gathering.  Best Western was close and had a fair rate.  The room was clean and fresh.  The pool was perfect for a hot summer day after driving.  The location is so convenient to stores, restaurants, and gas.  We will definitely stay there again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to Willis for a family gathering.  Best Western was close and had a fair rate.  The room was clean and fresh.  The pool was perfect for a hot summer day after driving.  The location is so convenient to stores, restaurants, and gas.  We will definitely stay there again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r391604755-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>391604755</t>
+  </si>
+  <si>
+    <t>Hotel needs work</t>
+  </si>
+  <si>
+    <t>A/C didn't seem to work properly - the room felt damp and never really cooled off properly.  Bathtub DID NOT drain well at all.  Only chose this hotel because there were very limited options in the vicinity.MoreShow less</t>
+  </si>
+  <si>
+    <t>A/C didn't seem to work properly - the room felt damp and never really cooled off properly.  Bathtub DID NOT drain well at all.  Only chose this hotel because there were very limited options in the vicinity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r385864286-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>385864286</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT STAY</t>
+  </si>
+  <si>
+    <t>Great place to stay. Very comfortable and close to everything. Rooms and hotels was  keep very nice &amp; staff was wonderful, everyone there was always so helpful and friendly. Would recommend this hotel if you are visiting in Willis area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Great place to stay. Very comfortable and close to everything. Rooms and hotels was  keep very nice &amp; staff was wonderful, everyone there was always so helpful and friendly. Would recommend this hotel if you are visiting in Willis area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r385812011-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>385812011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>over all not bad at all! Breakfast in the morning was great! room was really clean and staff was friendly Internet was free and was descent speed and was not drag along dial up! Location wasnt bad AOKMoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>over all not bad at all! Breakfast in the morning was great! room was really clean and staff was friendly Internet was free and was descent speed and was not drag along dial up! Location wasnt bad AOKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r384795912-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>384795912</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Staff was very accommodating.</t>
+  </si>
+  <si>
+    <t>Room was clean, staff was attentive, convenient to our family. The hotel was very quiet, no problems with getting more towels. The service was very good and great attitudes from front desk and house keeping staff. All in all it was a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean, staff was attentive, convenient to our family. The hotel was very quiet, no problems with getting more towels. The service was very good and great attitudes from front desk and house keeping staff. All in all it was a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r381291924-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>381291924</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>EXCELLENT BEST WESTERN IN WILLIS, TX</t>
+  </si>
+  <si>
+    <t>We've stayed at quite a few hotels in our day, but the Best Western in Willis, TX (enroute to Galveston Island) is outstanding.  The beds and pillows were exceptionally GREAT, the room was clean and very well decorated.  There was also great lighting in the vanity/bath area which is sometimes unusual for a hotel.  We dealt with three different staff members, all of who were quite accommodating and friendly.  Breakfast was also great with a very good variety.  My husband and I would highly recommend this Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2016</t>
+  </si>
+  <si>
+    <t>We've stayed at quite a few hotels in our day, but the Best Western in Willis, TX (enroute to Galveston Island) is outstanding.  The beds and pillows were exceptionally GREAT, the room was clean and very well decorated.  There was also great lighting in the vanity/bath area which is sometimes unusual for a hotel.  We dealt with three different staff members, all of who were quite accommodating and friendly.  Breakfast was also great with a very good variety.  My husband and I would highly recommend this Best Western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r380074102-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>380074102</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Nothing Fancy</t>
+  </si>
+  <si>
+    <t>We booked the room because we were coming to the area for a wedding. If you want a resort, this isn't it. But, if what you want is a clean comfortable room with a clean comfortable bed, a clean shower with plenty of hot water and a nice free breakfast at a reasonable price, this is a place you. If we found ourselves back in the area, I would not hesitate to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2016</t>
+  </si>
+  <si>
+    <t>We booked the room because we were coming to the area for a wedding. If you want a resort, this isn't it. But, if what you want is a clean comfortable room with a clean comfortable bed, a clean shower with plenty of hot water and a nice free breakfast at a reasonable price, this is a place you. If we found ourselves back in the area, I would not hesitate to stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r368349102-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>368349102</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Dissappointment</t>
+  </si>
+  <si>
+    <t>At 655AM, we went to the lobby to enjoy breakfast which we were told was available starting at 6AM.  The hotel front doors were locked and  the clerk (Carlos) was asleep in his chair. He stumbled to the door to unlock the door. The lobby and breakfast areas were dark, and the promised hot/cold breakfast was not ready.  I had to ask Carlos to turn on the lights and asked him where the breakfast is.  He mumbled it will be ready in 5 minutes.  Fifteen minutes later there was some of the breakfast items available to serve ourselves. We were rushed to eat and leave at 730. Rebecca, the incoming desk clerk tried to provide us with good customer service, but Carlos did not express any apology or concern. This is the second time I stayed in your hotel within the past 12 months, but I will be looking for different lodging the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>At 655AM, we went to the lobby to enjoy breakfast which we were told was available starting at 6AM.  The hotel front doors were locked and  the clerk (Carlos) was asleep in his chair. He stumbled to the door to unlock the door. The lobby and breakfast areas were dark, and the promised hot/cold breakfast was not ready.  I had to ask Carlos to turn on the lights and asked him where the breakfast is.  He mumbled it will be ready in 5 minutes.  Fifteen minutes later there was some of the breakfast items available to serve ourselves. We were rushed to eat and leave at 730. Rebecca, the incoming desk clerk tried to provide us with good customer service, but Carlos did not express any apology or concern. This is the second time I stayed in your hotel within the past 12 months, but I will be looking for different lodging the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r353809097-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>353809097</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant</t>
+  </si>
+  <si>
+    <t>The room was spacious and comfy and clean and nice looking! Pillows were soft and smelled fresh.  The included breakfast is modest but fresh and good.  The front desk staff is very nice! Business center in the lobby and the coffee is good.  I'll be back the next time I'm in Texas. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>The room was spacious and comfy and clean and nice looking! Pillows were soft and smelled fresh.  The included breakfast is modest but fresh and good.  The front desk staff is very nice! Business center in the lobby and the coffee is good.  I'll be back the next time I'm in Texas. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r350963895-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>350963895</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch out. Be cautious </t>
+  </si>
+  <si>
+    <t>o far not so good. Yes the rooms are clean. However we were moved around to 3 different rooms at 10:26pm. First rm 101a (moved because keys wouldn't work) then 121which smelled like smoke. So then the lady moved us to another. I spoke to a lady on the phone 2 weeks prior and asked if they matched my company's price. I was told yes. Nothing more! I checked in and all was well. After eating and finding where we need to be tomorrow we come back at 9:30 to find we are locked out of our rooms and will be charged and additional $50. I have all signed copies of agreed opon prices. Now I see why the other 4 reviews were upset about being charged extra. Please be cautious about staying here on discount rates. They wait till you swipe you card to upcharge you!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded February 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2016</t>
+  </si>
+  <si>
+    <t>o far not so good. Yes the rooms are clean. However we were moved around to 3 different rooms at 10:26pm. First rm 101a (moved because keys wouldn't work) then 121which smelled like smoke. So then the lady moved us to another. I spoke to a lady on the phone 2 weeks prior and asked if they matched my company's price. I was told yes. Nothing more! I checked in and all was well. After eating and finding where we need to be tomorrow we come back at 9:30 to find we are locked out of our rooms and will be charged and additional $50. I have all signed copies of agreed opon prices. Now I see why the other 4 reviews were upset about being charged extra. Please be cautious about staying here on discount rates. They wait till you swipe you card to upcharge you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r347010690-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>347010690</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>very good place to stay</t>
+  </si>
+  <si>
+    <t>excellent people work there at front very nice people they take care of you they friendly and house keeping they do an excellent job it was very nice and clean  my rooms and the services . breakfast very good they have a lot of chooses you can pick from .MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded February 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2016</t>
+  </si>
+  <si>
+    <t>excellent people work there at front very nice people they take care of you they friendly and house keeping they do an excellent job it was very nice and clean  my rooms and the services . breakfast very good they have a lot of chooses you can pick from .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r328708982-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>328708982</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>It was a great experience</t>
+  </si>
+  <si>
+    <t>The Service was great and the staff was very friendly. The room was very clean and the prices were affordable. The front desk person was very helpful and friendly. The best part of the stay was the breakfast, the food was well prepared and organized.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>The Service was great and the staff was very friendly. The room was very clean and the prices were affordable. The front desk person was very helpful and friendly. The best part of the stay was the breakfast, the food was well prepared and organized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r326414992-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>326414992</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>DOESN'T SPEAK ENGLISH</t>
+  </si>
+  <si>
+    <t>The man at the front desk did not understand a word I said. I was trying to bring breakfast to my wife who was in bed at the time, so I asked the man for a tray. He looked at me like I was an idiot the he said "No have no trays." HE WAS AT THE FRONT DESK ANSWERING CALLS AND CHECKING PEOPLE IN AND OUT!!! WHAT A JOKE~! It wasn't even what he said. It was how he said it, HE WAS RUDE.MoreShow less</t>
+  </si>
+  <si>
+    <t>The man at the front desk did not understand a word I said. I was trying to bring breakfast to my wife who was in bed at the time, so I asked the man for a tray. He looked at me like I was an idiot the he said "No have no trays." HE WAS AT THE FRONT DESK ANSWERING CALLS AND CHECKING PEOPLE IN AND OUT!!! WHAT A JOKE~! It wasn't even what he said. It was how he said it, HE WAS RUDE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r325175647-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>325175647</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Best Western Hotel Willis Texas</t>
+  </si>
+  <si>
+    <t>Great place to stay while visiting the area. Clean room comfortable bed and pillows; TV, free WiFi, all amenities available. Safe. Secure. Quiet. Excellent accommodating staff and housekeeping team. Children are welcomed. Nice variety of breakfast foods for guests. Walking distance to a few fast food venues and Baptist Church. Very convenient to grocery store, shopping and other establishments.  Right off of N45. You can see it from the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Great place to stay while visiting the area. Clean room comfortable bed and pillows; TV, free WiFi, all amenities available. Safe. Secure. Quiet. Excellent accommodating staff and housekeeping team. Children are welcomed. Nice variety of breakfast foods for guests. Walking distance to a few fast food venues and Baptist Church. Very convenient to grocery store, shopping and other establishments.  Right off of N45. You can see it from the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r312251711-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>312251711</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Perfect place to lay your head</t>
+  </si>
+  <si>
+    <t>This is a great place to lay your head.  Very clean!  Breakfast had several options.  The employees were very friendly and helpful.  Got the chance to meet the owner and it is obvious that his hands on around the property showed his pride in being a small business owner.  If all the hotels we have stayed at showed that pride in which this man did then it would be a pleasure to stay out of town on a regular basis.  The pool was very clean, the rooms were very clean and the the amenities were good.  We had a refrigerator and microwave in our room that were both very clean and made it easy to be out of town.  We didn't have to go pay for fast food.  After a long day it was nice to come to the room grab a drink from the fridge and jump in the pool.  The tv had plenty of channels to offer as wellMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a great place to lay your head.  Very clean!  Breakfast had several options.  The employees were very friendly and helpful.  Got the chance to meet the owner and it is obvious that his hands on around the property showed his pride in being a small business owner.  If all the hotels we have stayed at showed that pride in which this man did then it would be a pleasure to stay out of town on a regular basis.  The pool was very clean, the rooms were very clean and the the amenities were good.  We had a refrigerator and microwave in our room that were both very clean and made it easy to be out of town.  We didn't have to go pay for fast food.  After a long day it was nice to come to the room grab a drink from the fridge and jump in the pool.  The tv had plenty of channels to offer as wellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r310052029-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>310052029</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Good value!</t>
+  </si>
+  <si>
+    <t>The place is clean,freshly painted, comfortable. Only problem: The bathroom fan was not working properly and was, in addition, noisy. The location is excellent with easy access to the freeway and lots of eating places nearby.  There is plenty of shopping within 5 miles of the  motel.  Lake Conroe is 6-7 miles way.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>The place is clean,freshly painted, comfortable. Only problem: The bathroom fan was not working properly and was, in addition, noisy. The location is excellent with easy access to the freeway and lots of eating places nearby.  There is plenty of shopping within 5 miles of the  motel.  Lake Conroe is 6-7 miles way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r306847981-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>306847981</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>3 night stay, Sunday to Wed.</t>
+  </si>
+  <si>
+    <t>A very good motel for a pretty fair price. A motel with external doors (to the outside) can typically be a bit noisy and with just a few other guests during our stay, this was true. (A few people talking outside; nearby doors slamming, traffic noise, etc.)    The front desk staff were very friendly and courteous. The breakfast was good except there was never any bacon during our 3 mornings there.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>A very good motel for a pretty fair price. A motel with external doors (to the outside) can typically be a bit noisy and with just a few other guests during our stay, this was true. (A few people talking outside; nearby doors slamming, traffic noise, etc.)    The front desk staff were very friendly and courteous. The breakfast was good except there was never any bacon during our 3 mornings there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r289716276-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>289716276</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Great expeence</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable. We used our points for a free night but we were treated as if we were paying full price. Plenty of restaurants nearby and the property was easy to access from the interstate. The pool was sparkling. Would definitely sty there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable. We used our points for a free night but we were treated as if we were paying full price. Plenty of restaurants nearby and the property was easy to access from the interstate. The pool was sparkling. Would definitely sty there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r287496357-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>287496357</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Would Never Have Stayed There If Had Known . . .</t>
+  </si>
+  <si>
+    <t>Overall, an unpleasant experience. Way to pricey for the quality of the room. I've stayed in cheaper and far better recently. The air conditioning was difficult to control; the TV remote did not work properly; the shower spewed very hard and the spew strength was uncontrollable, traffic noise was distracting . . .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r284332689-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>284332689</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>I stayed in one of the ground floor rooms for the night. The room was clean but smelled musty. The ironing board had a pretty big stain on it that would draw my eye when I'd pass by. The shower head had mineral buildup on it, but it still worked pretty good, although a 8-10 minute  shower will leave you with about 8 - 10 inches of water around my legs. The bed was comfortable and there were plenty of pillows. The pool was small but nice, with a handicap chair lift. Overall it was an okay stay. It seems to me that it's more in line with what you'd expect from a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in one of the ground floor rooms for the night. The room was clean but smelled musty. The ironing board had a pretty big stain on it that would draw my eye when I'd pass by. The shower head had mineral buildup on it, but it still worked pretty good, although a 8-10 minute  shower will leave you with about 8 - 10 inches of water around my legs. The bed was comfortable and there were plenty of pillows. The pool was small but nice, with a handicap chair lift. Overall it was an okay stay. It seems to me that it's more in line with what you'd expect from a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r268989314-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>268989314</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Tired and Frustrated</t>
+  </si>
+  <si>
+    <t>I was on business in Willis, Texas and stayed at this Best Western because of its convenience to where I was working. Upon check-in I was treated rudely when I asked about the corporate direct pay. In fact I had to get corporate to call and sort it out. The room smelled of smoke, the internet was very poor, and the noise was pretty bad. Not, to mention that it is very difficult to get to from highway 45. We had a storm and the power went out and there is no generator so it did not take long for the humidity to take over the room. All in All it would not have been too bad of a stay if the staff would have been a little more accommodating and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I was on business in Willis, Texas and stayed at this Best Western because of its convenience to where I was working. Upon check-in I was treated rudely when I asked about the corporate direct pay. In fact I had to get corporate to call and sort it out. The room smelled of smoke, the internet was very poor, and the noise was pretty bad. Not, to mention that it is very difficult to get to from highway 45. We had a storm and the power went out and there is no generator so it did not take long for the humidity to take over the room. All in All it would not have been too bad of a stay if the staff would have been a little more accommodating and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r260821960-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>260821960</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Not a typical Best Western</t>
+  </si>
+  <si>
+    <t>Dingy, dirty uncomfortable beds, stained chars. Paid 2 nights, only stayed 1. Needs a serious update soon. Seemed like an old motel rather than a quality hotel. I can say that my previous stays at other best westerns have been much more positive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded March 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2015</t>
+  </si>
+  <si>
+    <t>Dingy, dirty uncomfortable beds, stained chars. Paid 2 nights, only stayed 1. Needs a serious update soon. Seemed like an old motel rather than a quality hotel. I can say that my previous stays at other best westerns have been much more positive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r250286725-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>250286725</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Willis Bestwestern</t>
+  </si>
+  <si>
+    <t>Door was hard to open.I had to call front desk  twice to get help to open the door.I have read other reviews with the same complaint. One of the lamp had a broke switch. The microwave and the refrigerator worked good.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Door was hard to open.I had to call front desk  twice to get help to open the door.I have read other reviews with the same complaint. One of the lamp had a broke switch. The microwave and the refrigerator worked good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r236862708-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>236862708</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Willis stay</t>
+  </si>
+  <si>
+    <t>This is a decent  place in Willis. Room was fine and bed decent. Breakfast was minimal compared to some. Checked out one room and smelled sour so did find another that was fine.  Desk help was nice. Parking good and lit.  Compared to some other places price reasonable.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r234968586-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>234968586</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Very Happy With Stay</t>
+  </si>
+  <si>
+    <t>Stayed for a couple of nights for business purposes and everything was great.  The staff was pleasant and the location was pretty quiet and in a convenient area.  Very close to where we needed to go on both days.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r234477186-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>234477186</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Why Activate the Room Card if it isn't going to work</t>
+  </si>
+  <si>
+    <t>Door to our room wouldn't open with activated card. We were told we to pull on the door handle, then swipe quickly &amp; push down the handle at just the right time. Can you believe this? It's a puzzle!!! We should have gotten a prizes each time we got it open after several tries. Night front desk staff was rude also.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r226559736-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>226559736</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Bad beds</t>
+  </si>
+  <si>
+    <t>Staff was not very helpful and the beds were horrible. When told of the problem and asked to move to another room the staff was not helpful at all.  In fact they made it so difficult that we just stayed in the room we were in as it was going to be a act of Congress to get moved to another room.  Pool was always locked and was not really kept that clean.  Breakfast was a joke.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r224946503-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>224946503</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Just average</t>
+  </si>
+  <si>
+    <t>We checked in around 6:00 and were on a motorcycle. We were given a room in the front on the bottom floor ( I did have a reservation ). Sounded good as we were told we could park right outside our door....only problem was all the parking in the area outside was handicap parking. Lots of other people were outside smoking and drinking. Not very inviting. When traveling the Wifi is very important but it would not hook up and when it did it dropped you right off unless you went into the lobby. Breakfast room is very small, great coffee, limited items but when we were there a guy put all the yogurt in his cargo shorts pockets and walked out. Room was clean but not a place I would return too.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in around 6:00 and were on a motorcycle. We were given a room in the front on the bottom floor ( I did have a reservation ). Sounded good as we were told we could park right outside our door....only problem was all the parking in the area outside was handicap parking. Lots of other people were outside smoking and drinking. Not very inviting. When traveling the Wifi is very important but it would not hook up and when it did it dropped you right off unless you went into the lobby. Breakfast room is very small, great coffee, limited items but when we were there a guy put all the yogurt in his cargo shorts pockets and walked out. Room was clean but not a place I would return too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r223304555-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>223304555</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Good room for good price</t>
+  </si>
+  <si>
+    <t>We arrived after midnight....staff at check in was very nice.  Room was very comfortable....we slept well. We were on the back side of hotel, which was very quite.  Easy to miss turn on road....we had to go to next exit and come back.....We will stay here again.....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r212561815-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>212561815</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Good Experience &amp; Value</t>
+  </si>
+  <si>
+    <t>The Hotel was nice, but not the Ritz, then again if you wanted the Ritz, then you would be booking the  Ritz.  The room was  comfortable, clean and a good value for one's money.  The staff was friendly. Book the back side of the hotel if possible away from I-45 Highway noise or ask for a discount from room rate for I-45 side of hotel.  Ask directions to hotel.  Entrance is somewhat convoluted to get to.  Overall a nice experience.  I would recommend staying at the Willis Best Western Hotel.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r210237374-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>210237374</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>Be sure to do your homework on the entrance; I did and found it without issue.  They are remodeling, so overlook the extensive number of boxes strewn around the reception area. Be warned that their breakfast ends an hour earlier than most hotels. Ask them NOT to call you at 9:30 AM to ensure you are checking out at 11AM (then again at 10:55 AM.) Ask for a room on the back side of the hotel to avoid hwy noise. Staff is extremely helpful, rooms are clean, bed is comfortable and shower is amazing.  I will be a repeat customer here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r208633066-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>208633066</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Stay another place if possible.</t>
+  </si>
+  <si>
+    <t>This hotel was scary and dark.  Our room was broken in to prior to arrival and the TV stolen, they put us in there anyway and told us upon checkout we weren't supposed to be in that room but did nothing to discount our bill.  It smelled of paint and was sickening to breath all night.  It was too late on a Friday night to find another hotel.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r201138621-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>201138621</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Just a few details could improve this place a lot.</t>
+  </si>
+  <si>
+    <t>The first challenge was to find the driveway to the place.  I missed it the first go around and had to go sound on I10 to the next exit and take another shot at it.  Luckily, it was not dark yet and I could deduce my path visually.  There were no helpful signs for the hotel until you get to the hotel. I came for a horse related activity.  I was driving my F350. The next challenge was to find a place to park it in the small parking lot so that I did not block others.  Luckily, there were not many vehicles in the parking lot. The hotel is older, well kept but not new.  It sits facing I10.  My assigned room was on the front side and I quickly determined the the traffic noise was going to be a problem.  Going back to the front desk, I asked for a room on the back side.  The woman manning the desk was helpful and proceeded to change my room. It turned out that room was already occupied by a couple who had changed their assigned room since it was not ready.  The change had not been noted.  It took a while to determine which room might be unoccupied and made up.  Rushing to get ready to go out to eat, I had trouble with getting my door to open.  After using the card and noting the green flashing light,...The first challenge was to find the driveway to the place.  I missed it the first go around and had to go sound on I10 to the next exit and take another shot at it.  Luckily, it was not dark yet and I could deduce my path visually.  There were no helpful signs for the hotel until you get to the hotel. I came for a horse related activity.  I was driving my F350. The next challenge was to find a place to park it in the small parking lot so that I did not block others.  Luckily, there were not many vehicles in the parking lot. The hotel is older, well kept but not new.  It sits facing I10.  My assigned room was on the front side and I quickly determined the the traffic noise was going to be a problem.  Going back to the front desk, I asked for a room on the back side.  The woman manning the desk was helpful and proceeded to change my room. It turned out that room was already occupied by a couple who had changed their assigned room since it was not ready.  The change had not been noted.  It took a while to determine which room might be unoccupied and made up.  Rushing to get ready to go out to eat, I had trouble with getting my door to open.  After using the card and noting the green flashing light, the door would not open.  After many ties, I got lucky.  Turns out, other people all had the same problem.  Once back in the room, I tries to use internet.  Since you have to get the code from the front desk, I went to call on the room phone.  It was non-functional.  I made the call from my cell phone and got the code.   The room was clean and comfortable.  The bathroom was very clean and all the fixtures worked well.  I had a good night's sleep.  The breakfast room was small but the breakfast was good.  Bringing my iPad with me, I thought I would read the NY Times.  But no, the internet in the lobby and breakfast room is locked and the guests cannot use it.  Internet is only available in the rooms.  That is a head-scratcher since it is usually the other way around.  Trying to open the door again after breakfast, I thought I might have to get the front desk to come open the door for me but after 20 tries, it opened and I was able to get my stuff and check out.     For this, with the Senior Discount, I paid $95.  Not outrageous but still a little pricey for rural Texas for these accommodations I thought.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Neil P, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded May 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2014</t>
+  </si>
+  <si>
+    <t>The first challenge was to find the driveway to the place.  I missed it the first go around and had to go sound on I10 to the next exit and take another shot at it.  Luckily, it was not dark yet and I could deduce my path visually.  There were no helpful signs for the hotel until you get to the hotel. I came for a horse related activity.  I was driving my F350. The next challenge was to find a place to park it in the small parking lot so that I did not block others.  Luckily, there were not many vehicles in the parking lot. The hotel is older, well kept but not new.  It sits facing I10.  My assigned room was on the front side and I quickly determined the the traffic noise was going to be a problem.  Going back to the front desk, I asked for a room on the back side.  The woman manning the desk was helpful and proceeded to change my room. It turned out that room was already occupied by a couple who had changed their assigned room since it was not ready.  The change had not been noted.  It took a while to determine which room might be unoccupied and made up.  Rushing to get ready to go out to eat, I had trouble with getting my door to open.  After using the card and noting the green flashing light,...The first challenge was to find the driveway to the place.  I missed it the first go around and had to go sound on I10 to the next exit and take another shot at it.  Luckily, it was not dark yet and I could deduce my path visually.  There were no helpful signs for the hotel until you get to the hotel. I came for a horse related activity.  I was driving my F350. The next challenge was to find a place to park it in the small parking lot so that I did not block others.  Luckily, there were not many vehicles in the parking lot. The hotel is older, well kept but not new.  It sits facing I10.  My assigned room was on the front side and I quickly determined the the traffic noise was going to be a problem.  Going back to the front desk, I asked for a room on the back side.  The woman manning the desk was helpful and proceeded to change my room. It turned out that room was already occupied by a couple who had changed their assigned room since it was not ready.  The change had not been noted.  It took a while to determine which room might be unoccupied and made up.  Rushing to get ready to go out to eat, I had trouble with getting my door to open.  After using the card and noting the green flashing light, the door would not open.  After many ties, I got lucky.  Turns out, other people all had the same problem.  Once back in the room, I tries to use internet.  Since you have to get the code from the front desk, I went to call on the room phone.  It was non-functional.  I made the call from my cell phone and got the code.   The room was clean and comfortable.  The bathroom was very clean and all the fixtures worked well.  I had a good night's sleep.  The breakfast room was small but the breakfast was good.  Bringing my iPad with me, I thought I would read the NY Times.  But no, the internet in the lobby and breakfast room is locked and the guests cannot use it.  Internet is only available in the rooms.  That is a head-scratcher since it is usually the other way around.  Trying to open the door again after breakfast, I thought I might have to get the front desk to come open the door for me but after 20 tries, it opened and I was able to get my stuff and check out.     For this, with the Senior Discount, I paid $95.  Not outrageous but still a little pricey for rural Texas for these accommodations I thought.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r200549057-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>200549057</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Updates needed</t>
+  </si>
+  <si>
+    <t>The breakfast was totally unappetizing. The bed was hard and creaked each time I got up, but one can deal with a few problems ..With the exception of the clerk on dutyApril 6th afternoon, the front desk staff could benefit with more training.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r200168932-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>200168932</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>great rooms</t>
+  </si>
+  <si>
+    <t>this is one the better best westerns Ive stayed at in a while and reaffirmed my faith in what used to be my very favorite chains. the rooms were really clean, well laid out and I seriously enjoyed the "sitting room"MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Neil P, Front Office Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded May 6, 2014</t>
+  </si>
+  <si>
+    <t>this is one the better best westerns Ive stayed at in a while and reaffirmed my faith in what used to be my very favorite chains. the rooms were really clean, well laid out and I seriously enjoyed the "sitting room"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r197240086-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>197240086</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Great stay in Willis</t>
+  </si>
+  <si>
+    <t>We stayed at Best Western in Willis and the location could not have been better. The room was clean, nice and comfortable. We even had a good breakfast. Our son needed the wifi and it worked well. It was altogether a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil P, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at Best Western in Willis and the location could not have been better. The room was clean, nice and comfortable. We even had a good breakfast. Our son needed the wifi and it worked well. It was altogether a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r197038527-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>197038527</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Always a great stay!!!!</t>
+  </si>
+  <si>
+    <t>Staff is always friendly and the rooms are always extremely clean.  Also Sunil, who is new to the hotel, is a pleasure to work with. Breakfast is always fresh  and hot.  Hotel now has some HD channels, which is always great to hear.  Keep you the good work!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff is always friendly and the rooms are always extremely clean.  Also Sunil, who is new to the hotel, is a pleasure to work with. Breakfast is always fresh  and hot.  Hotel now has some HD channels, which is always great to hear.  Keep you the good work!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r196081761-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>196081761</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>After our Cruise</t>
+  </si>
+  <si>
+    <t>Galveston's port was foggy and our trip back to Dallas had to be postponed. Seeing  the Best Western sign was a Godsend for us. The room was very clean, we appreciated the microwave and fridge.  The comfort of the bed was so nice that we fell asleep the moment our heads touched the pillow. Nice shower head too. The continental breakfast was not the usual cuisine. Tasty and hot eggs with sausage and Texas shaped waffle along with the other expected items. Coffee was better than most, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Galveston's port was foggy and our trip back to Dallas had to be postponed. Seeing  the Best Western sign was a Godsend for us. The room was very clean, we appreciated the microwave and fridge.  The comfort of the bed was so nice that we fell asleep the moment our heads touched the pillow. Nice shower head too. The continental breakfast was not the usual cuisine. Tasty and hot eggs with sausage and Texas shaped waffle along with the other expected items. Coffee was better than most, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r193027259-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>193027259</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>good experience</t>
+  </si>
+  <si>
+    <t>We were going up to Huntsville for the weekend and all their hotels were full or over priced.  Drove back to Willis and were glad we did.  Hotel was clean and well priced for the room.  People were all nice and helpful.  Breakfast not great but other places close as alternatives.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r192191053-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>192191053</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Easy stop</t>
+  </si>
+  <si>
+    <t>Stopped in Conroe on the way home from business.  Had a coupon book that I picked up at a gas station.  Clerk honored the price and we were checked in.  Very quick and easy.  Room was clean, easy access to I-45 and the ac/heater blocked out the highway sounds.  Would stop there again if need arises.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r191147160-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>191147160</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>Not what I expected from a Best Western Hotel</t>
+  </si>
+  <si>
+    <t>We only Stayed one night, but I expected this hotel to be the quality of Best Western.  Of Course Willis , Texas is not a place many people go and I would never go again.  The hotel is old, on I 45 which is convenient but I would go farther down to Conroe to stay rather than do this again.  The breakfast they offer is a joke.On the positive the staff on the front desk  at night was fantastic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r181763176-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>181763176</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Nice but understaffed</t>
+  </si>
+  <si>
+    <t>Nice place and mostly worth the price paid. However, the breakfast area is poorly planned and was not staffed the morning we were there. The front desk clerk was doing double duty trying to keep up with her regular desk duties and keeping the breakfast area stocked. Additionally, the breakfast area was very cramped and poorly laid out, They really need to take the wall down between the lobby and the breakfast area. We ended up sitting in the lobby at on a sofa.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r172782552-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>172782552</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Everything you need</t>
+  </si>
+  <si>
+    <t>We stayed here because of the proximity to our family reunion and were very pleased. The room was large, clean, the bed so comfortable that for the first time in years I woke up without a backache!  It had a big chair and ottoman, besides a desk, chair and free in room wi fi, a microwave and fridge. What else could one need for a two day stay?  We paid $200.00 for one night and parking at The LAX Sheraton and didn't have anything nicer. (And a much smaller room.). Yes, it's a little complicated to reach if you try from the fm1097, but if you get on the stupid Texas feeder road southbound for one block then turn right the entrance is clearly marked.  Good stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We stayed here because of the proximity to our family reunion and were very pleased. The room was large, clean, the bed so comfortable that for the first time in years I woke up without a backache!  It had a big chair and ottoman, besides a desk, chair and free in room wi fi, a microwave and fridge. What else could one need for a two day stay?  We paid $200.00 for one night and parking at The LAX Sheraton and didn't have anything nicer. (And a much smaller room.). Yes, it's a little complicated to reach if you try from the fm1097, but if you get on the stupid Texas feeder road southbound for one block then turn right the entrance is clearly marked.  Good stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r165928496-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>165928496</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Thank you for everything!!! you guys are amazing.  I cant wait till August to come stay again. Entire staff was great and helpful.  Especially the housekeeping staff.  The hotel was VERY CLEAN.  Breakfast was good.  Free Wi Fi was great.  I will start using Best Western more often</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r157141132-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>157141132</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Could have been worse....</t>
+  </si>
+  <si>
+    <t>Fairly new but cheap construction. I'll never stay here again. Very sparse breakfast, poor amenities, lousy bed, small TV..... forget it. No recommendation to anyone, but this maybe the best in Willis.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r156208818-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>156208818</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>The staff are not honest</t>
+  </si>
+  <si>
+    <t>We got a no smoking room for one night. So I went outside to smoke and I threw the cigarette butts in my coke bottle instead of throwing them on the ground and threw the bottle in the trash inside the room because there was no trash can next to the room.When we checked out one of the maids found the bottle of butts and told the front desk that I had been smoking in the room and charged me the smoking fee.When I called to the hotel to explain what I did they were very rude and called me a liar they refused to refund the fee.I had to call my bank to dispute the charges.The staff are very unprofessional. MoreShow less</t>
+  </si>
+  <si>
+    <t>We got a no smoking room for one night. So I went outside to smoke and I threw the cigarette butts in my coke bottle instead of throwing them on the ground and threw the bottle in the trash inside the room because there was no trash can next to the room.When we checked out one of the maids found the bottle of butts and told the front desk that I had been smoking in the room and charged me the smoking fee.When I called to the hotel to explain what I did they were very rude and called me a liar they refused to refund the fee.I had to call my bank to dispute the charges.The staff are very unprofessional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r153486666-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>153486666</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>bad trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we were given 1 washcloth &amp; 2 small towels for 2 adults only given one cup of coffee for 2 adults admittedly when i went to the desk i got more but the second day the same thing happened we will not stay at best western again   </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r148623382-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>148623382</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Best in the vicinity; there aren't any others in Willis</t>
+  </si>
+  <si>
+    <t>Located adjacent to I-45 South, but confusing to get to, it's near the end of a hidden access road that winds through and behind other businesses, mostly fast food places. Very average 2-floor Best Western. Dated but clean exterior and interior. Narrow, congested parking area on back-side, better parking access on front-side. Room entrances are exterior. Rooms are average size, beds comfortable, rooms and bath are clean but a bit dated in decor. Carpet OK. AC worked good. Friendly front desk staff. Three negatives: (1) The towels are somewhat thin, but worse, they're very rough, will actually scrape your skin. Needs fabric softener badly. No, they need replacing also.(2) Very poor TV display quality. It's an HDTV (older model) but there's no HD service.(3) Very weak WIFI signal. Yes, it's free, but if you can't stay connected and when you do it's slooow then why provide it? We were in a room near the front so you'd think the signal would be strong. We've stayed in this hotel twice before (it IS the only one in the area) in different rooms and the result was the same each time... very weak WIFI signal.Overpriced for what it is, but we'll stay again because it's the only game in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Located adjacent to I-45 South, but confusing to get to, it's near the end of a hidden access road that winds through and behind other businesses, mostly fast food places. Very average 2-floor Best Western. Dated but clean exterior and interior. Narrow, congested parking area on back-side, better parking access on front-side. Room entrances are exterior. Rooms are average size, beds comfortable, rooms and bath are clean but a bit dated in decor. Carpet OK. AC worked good. Friendly front desk staff. Three negatives: (1) The towels are somewhat thin, but worse, they're very rough, will actually scrape your skin. Needs fabric softener badly. No, they need replacing also.(2) Very poor TV display quality. It's an HDTV (older model) but there's no HD service.(3) Very weak WIFI signal. Yes, it's free, but if you can't stay connected and when you do it's slooow then why provide it? We were in a room near the front so you'd think the signal would be strong. We've stayed in this hotel twice before (it IS the only one in the area) in different rooms and the result was the same each time... very weak WIFI signal.Overpriced for what it is, but we'll stay again because it's the only game in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r121227205-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>121227205</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>ok, b/c it's convienent.</t>
+  </si>
+  <si>
+    <t>The Hotel Staff was Awesome - Becky checked me in. I asked for a late check out &amp; she informed me, it'll be $10 per hour! I declined, said I would leave a normal check out time of noon.  I don't remember the lady that checked me out by she was nice too. The only real problem I had with my room, was that the TV kept going out. You could hear the sound, but only 1 thin line across the screen. Then, the door was so hard to open that I had to ask a man from another room to help me open my door! The suction holding the door closed was outrageous! Even a Grown Man had a hard time opening the door.  The beds &amp; pillows were comfortable. I like the wide shower head! There were 2 phones in the room? It is close to my destination, so I'll give it one more try.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>The Hotel Staff was Awesome - Becky checked me in. I asked for a late check out &amp; she informed me, it'll be $10 per hour! I declined, said I would leave a normal check out time of noon.  I don't remember the lady that checked me out by she was nice too. The only real problem I had with my room, was that the TV kept going out. You could hear the sound, but only 1 thin line across the screen. Then, the door was so hard to open that I had to ask a man from another room to help me open my door! The suction holding the door closed was outrageous! Even a Grown Man had a hard time opening the door.  The beds &amp; pillows were comfortable. I like the wide shower head! There were 2 phones in the room? It is close to my destination, so I'll give it one more try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r119239761-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>119239761</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Old Best Western -</t>
+  </si>
+  <si>
+    <t>not too many choices in Willis.   I stayed here about 8 yrs ago and can't see that anything changed.  The place is clean,  staff friendly, rates reasonable, pool sparkles.   It's even more tricky to get to the motel because of construction.  The door to my room was very difficult to open.   Beds are comfy &amp; shower powerful and hot.  The TV remote didn't work ... tried replacing it w 3 others but all appeared to have some problem.    There is a lot of new business near by including a new Krogers &amp; Walgreens under construction.  I expect this property will be upgraded or replaced soon.   Maybe some competition will arrive?!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>not too many choices in Willis.   I stayed here about 8 yrs ago and can't see that anything changed.  The place is clean,  staff friendly, rates reasonable, pool sparkles.   It's even more tricky to get to the motel because of construction.  The door to my room was very difficult to open.   Beds are comfy &amp; shower powerful and hot.  The TV remote didn't work ... tried replacing it w 3 others but all appeared to have some problem.    There is a lot of new business near by including a new Krogers &amp; Walgreens under construction.  I expect this property will be upgraded or replaced soon.   Maybe some competition will arrive?!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r39966627-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>39966627</t>
+  </si>
+  <si>
+    <t>09/06/2009</t>
+  </si>
+  <si>
+    <t>Great hospitality and attractive rooms</t>
+  </si>
+  <si>
+    <t>My husband and I stopped at this hotel on our way to Houston. We were impressed with the nicely decorated spotless lobby.  We were greeted by a friendly young lady who offered us a discounted rate since we checked in around 11pm and were going to leave by 6am.  The room had a fresh, clean scent and was nicely decorated. We enjoyed our waffles for breakfast. Since we were unsure how to make the waffles, the manager actually came out herself and made them for us! We will most certainly stay here again!</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r5233311-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>5233311</t>
+  </si>
+  <si>
+    <t>05/28/2006</t>
+  </si>
+  <si>
+    <t>Great little place to stop</t>
+  </si>
+  <si>
+    <t>Really nice small property in Willis, TX, between Huntsville and Conroe, 22 miles south of Sam Houston State University.  Very clean and comfortable rooms with two queens, micro fridge and microwave.  Two of twelve rooms on the back side of the hotel are handicapped access.  Even though the property is right on I-45, the rooms are completely quiet; couldn't hear a noise at night at all.  Good cold breakfast with fresh fruit.  Convenience stores and HEB are within walking distance.  The property owners are available and aim to please.  Access is from frontage road and difficult to see at night.  You'll be happy with this stop on the way to Houston or points south.MoreShow less</t>
+  </si>
+  <si>
+    <t>Really nice small property in Willis, TX, between Huntsville and Conroe, 22 miles south of Sam Houston State University.  Very clean and comfortable rooms with two queens, micro fridge and microwave.  Two of twelve rooms on the back side of the hotel are handicapped access.  Even though the property is right on I-45, the rooms are completely quiet; couldn't hear a noise at night at all.  Good cold breakfast with fresh fruit.  Convenience stores and HEB are within walking distance.  The property owners are available and aim to please.  Access is from frontage road and difficult to see at night.  You'll be happy with this stop on the way to Houston or points south.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2026,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2058,4601 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>219</v>
+      </c>
+      <c r="X23" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>271</v>
+      </c>
+      <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>293</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>294</v>
+      </c>
+      <c r="X32" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>302</v>
+      </c>
+      <c r="X33" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>310</v>
+      </c>
+      <c r="X34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>328</v>
+      </c>
+      <c r="J37" t="s">
+        <v>329</v>
+      </c>
+      <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
+        <v>331</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>332</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>333</v>
+      </c>
+      <c r="X37" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
+        <v>338</v>
+      </c>
+      <c r="K38" t="s">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>341</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>348</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>349</v>
+      </c>
+      <c r="X39" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>353</v>
+      </c>
+      <c r="J40" t="s">
+        <v>354</v>
+      </c>
+      <c r="K40" t="s">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>358</v>
+      </c>
+      <c r="X40" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>362</v>
+      </c>
+      <c r="J41" t="s">
+        <v>363</v>
+      </c>
+      <c r="K41" t="s">
+        <v>364</v>
+      </c>
+      <c r="L41" t="s">
+        <v>365</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>366</v>
+      </c>
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>107</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>377</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>378</v>
+      </c>
+      <c r="J44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>382</v>
+      </c>
+      <c r="O44" t="s">
+        <v>140</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>383</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" t="s">
+        <v>385</v>
+      </c>
+      <c r="K45" t="s">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s">
+        <v>387</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>382</v>
+      </c>
+      <c r="O45" t="s">
+        <v>140</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s">
+        <v>393</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>394</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>395</v>
+      </c>
+      <c r="J47" t="s">
+        <v>396</v>
+      </c>
+      <c r="K47" t="s">
+        <v>397</v>
+      </c>
+      <c r="L47" t="s">
+        <v>398</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>399</v>
+      </c>
+      <c r="O47" t="s">
+        <v>140</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>399</v>
+      </c>
+      <c r="O48" t="s">
+        <v>175</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>417</v>
+      </c>
+      <c r="X50" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>426</v>
+      </c>
+      <c r="J52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="s">
+        <v>428</v>
+      </c>
+      <c r="L52" t="s">
+        <v>429</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>430</v>
+      </c>
+      <c r="O52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>431</v>
+      </c>
+      <c r="X52" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+      <c r="J53" t="s">
+        <v>435</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s">
+        <v>437</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>438</v>
+      </c>
+      <c r="X53" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" t="s">
+        <v>444</v>
+      </c>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>430</v>
+      </c>
+      <c r="O54" t="s">
+        <v>107</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>438</v>
+      </c>
+      <c r="X54" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+      <c r="J55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" t="s">
+        <v>450</v>
+      </c>
+      <c r="L55" t="s">
+        <v>451</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s">
+        <v>140</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>438</v>
+      </c>
+      <c r="X55" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s">
+        <v>140</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" t="s">
+        <v>461</v>
+      </c>
+      <c r="K57" t="s">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s">
+        <v>107</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>469</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>464</v>
+      </c>
+      <c r="O58" t="s">
+        <v>107</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>471</v>
+      </c>
+      <c r="J59" t="s">
+        <v>472</v>
+      </c>
+      <c r="K59" t="s">
+        <v>473</v>
+      </c>
+      <c r="L59" t="s">
+        <v>474</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>475</v>
+      </c>
+      <c r="O59" t="s">
+        <v>140</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>476</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>477</v>
+      </c>
+      <c r="J60" t="s">
+        <v>478</v>
+      </c>
+      <c r="K60" t="s">
+        <v>479</v>
+      </c>
+      <c r="L60" t="s">
+        <v>480</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>481</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>483</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>484</v>
+      </c>
+      <c r="J61" t="s">
+        <v>485</v>
+      </c>
+      <c r="K61" t="s">
+        <v>486</v>
+      </c>
+      <c r="L61" t="s">
+        <v>487</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>488</v>
+      </c>
+      <c r="O61" t="s">
+        <v>107</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>489</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>490</v>
+      </c>
+      <c r="J62" t="s">
+        <v>491</v>
+      </c>
+      <c r="K62" t="s">
+        <v>492</v>
+      </c>
+      <c r="L62" t="s">
+        <v>493</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>494</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>495</v>
+      </c>
+      <c r="J63" t="s">
+        <v>496</v>
+      </c>
+      <c r="K63" t="s">
+        <v>497</v>
+      </c>
+      <c r="L63" t="s">
+        <v>498</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>500</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>501</v>
+      </c>
+      <c r="J64" t="s">
+        <v>502</v>
+      </c>
+      <c r="K64" t="s">
+        <v>503</v>
+      </c>
+      <c r="L64" t="s">
+        <v>504</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>505</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>507</v>
+      </c>
+      <c r="J65" t="s">
+        <v>508</v>
+      </c>
+      <c r="K65" t="s">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>511</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>513</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>514</v>
+      </c>
+      <c r="J66" t="s">
+        <v>515</v>
+      </c>
+      <c r="K66" t="s">
+        <v>516</v>
+      </c>
+      <c r="L66" t="s">
+        <v>517</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>518</v>
+      </c>
+      <c r="O66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>520</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>521</v>
+      </c>
+      <c r="J67" t="s">
+        <v>522</v>
+      </c>
+      <c r="K67" t="s">
+        <v>523</v>
+      </c>
+      <c r="L67" t="s">
+        <v>524</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>525</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>527</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>528</v>
+      </c>
+      <c r="J68" t="s">
+        <v>529</v>
+      </c>
+      <c r="K68" t="s">
+        <v>530</v>
+      </c>
+      <c r="L68" t="s">
+        <v>531</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>532</v>
+      </c>
+      <c r="O68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>533</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>534</v>
+      </c>
+      <c r="J69" t="s">
+        <v>535</v>
+      </c>
+      <c r="K69" t="s">
+        <v>536</v>
+      </c>
+      <c r="L69" t="s">
+        <v>537</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_531.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_531.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="861">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,93 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r613432817-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>56895</t>
+  </si>
+  <si>
+    <t>106192</t>
+  </si>
+  <si>
+    <t>613432817</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Very pleased.</t>
+  </si>
+  <si>
+    <t>I was moving from Miami Florida to Willis. I originally scheduled 4 two nights but my apartment was not ready so I ended up staying about a week. Is very clean the staff is marvelous and very nicely located.Really the only complaint I had was I normally contact the facilities Direct because I have some special needs and have found that the central offices are not much help or dependable. As a result I ended up paying almost $20 a night more than if I had booked online.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r588460604-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>588460604</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Clean and Comfy Bed  but Loud</t>
+  </si>
+  <si>
+    <t>Check in and out were great.  The staff was really friendly and helpful.  The room was fine.  It was clean.  The bed was super comfy.  Lots of TV channels.  The A/C was incredibly cold. The bathroom was spotless!  The ottoman was a bit raggedy, but it's an ottoman so who really cares.  The only real issue was the noise from 45.  It was kinda like you were sitting on the side of the freeway.  I mean, you are sleeping on the side of the freeway, so they can only do so much, but it was loud.  I did fall asleep, but I can kinda sleep through lots.  I think it might bother light sleepers.Overall, though, not a bad choice if you're staying in the area.  There aren't a lot of options, so this is a really good one.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Vinod P, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Check in and out were great.  The staff was really friendly and helpful.  The room was fine.  It was clean.  The bed was super comfy.  Lots of TV channels.  The A/C was incredibly cold. The bathroom was spotless!  The ottoman was a bit raggedy, but it's an ottoman so who really cares.  The only real issue was the noise from 45.  It was kinda like you were sitting on the side of the freeway.  I mean, you are sleeping on the side of the freeway, so they can only do so much, but it was loud.  I did fall asleep, but I can kinda sleep through lots.  I think it might bother light sleepers.Overall, though, not a bad choice if you're staying in the area.  There aren't a lot of options, so this is a really good one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r585622975-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>585622975</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Non smoking room was reserved for 3 nights. Arrived at 3:00PM Room reeked of smoke.Contacted front desk for a different room...…………..They sent a maintenance man with room deodorizer.  Little better but still hade the odor.  Noticed the fire sprinkler head was hanging from ceiling.  Had to hold handle down on toilet to get it to flush .Came back to room the afternoon of second night but couldn't unlock door.  Had to walk back to front office to get key reprogrammed.  Not a very comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Vinod P, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Non smoking room was reserved for 3 nights. Arrived at 3:00PM Room reeked of smoke.Contacted front desk for a different room...…………..They sent a maintenance man with room deodorizer.  Little better but still hade the odor.  Noticed the fire sprinkler head was hanging from ceiling.  Had to hold handle down on toilet to get it to flush .Came back to room the afternoon of second night but couldn't unlock door.  Had to walk back to front office to get key reprogrammed.  Not a very comfortable stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r568298801-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
-    <t>56895</t>
-  </si>
-  <si>
-    <t>106192</t>
-  </si>
-  <si>
     <t>568298801</t>
   </si>
   <si>
@@ -177,9 +252,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r557149241-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -219,6 +291,60 @@
     <t>I would like to tell you in our time of need for the safety of our family and animals we evacuated our home! We stayed here 3 days and the staff was amazing!!! The Inn was completely full and they did a great job! I'm very sorry for what they had to endure with some very nasty people! They are pet friendly and a lot of people came with their pets! These poor cleaning ladies had to clean rooms where people let their large dogs use the rooms as complete bathrooms! Their urine and feces everywhere! I am ashamed that we have people in America that live like this and disrespect like this. I truly am scared to know that one day that may be a room I need to be in one day! Sincerely Thank You to all the Staff.....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r503554265-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>503554265</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>Made a quick overnight stay at this Red Roof Inn this past weekend.  Overall it was okay, but the room was a little sad and needed some updating.  There were two things in particular...(1) the room was on the I-45 side and was somewhat noisy; and (2) the bathroom door would not close completely.  Also, the rooms open to the outside which could be a safety risk.  The access into and out of the parking lot for the hotel was strange and weird to get in and out of.  Given the option, I probably will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Made a quick overnight stay at this Red Roof Inn this past weekend.  Overall it was okay, but the room was a little sad and needed some updating.  There were two things in particular...(1) the room was on the I-45 side and was somewhat noisy; and (2) the bathroom door would not close completely.  Also, the rooms open to the outside which could be a safety risk.  The access into and out of the parking lot for the hotel was strange and weird to get in and out of.  Given the option, I probably will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r488611567-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>488611567</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>A Nice Stay</t>
+  </si>
+  <si>
+    <t>The Red Roof Inn has Good clean rooms and is close to the popluar fast fod restraunts.  However, a 10 minute drive took us to nicer restrauants and hometown meals. We attended my grandson's kindergarden graduation so we didn't see much of Willis nor Conroe.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>The Red Roof Inn has Good clean rooms and is close to the popluar fast fod restraunts.  However, a 10 minute drive took us to nicer restrauants and hometown meals. We attended my grandson's kindergarden graduation so we didn't see much of Willis nor Conroe.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r471750873-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -237,9 +363,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded April 2, 2017</t>
   </si>
   <si>
@@ -297,6 +420,54 @@
     <t>Got informed of a death in family so a trip to wills Texas was next. When I was young there was really nothing in this town but it has grown. I found a best western on line and booked.  Don't usually stay at them but was very surprised. Bed and pillows very comfy very polite service only draw back is getting in to the place gps will fail you but after 2 loops finally arrived. I would highly recommend for stay clean and great serviceMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r461470838-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>461470838</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Run down and dirty.</t>
+  </si>
+  <si>
+    <t>Would not recommend this hotel to a family. Beds were horrendous and the place stunk. Then in 15 minutes I had 3 people check to see if we'd left yet including peeking in the window.  We were to stay 6 nights - stayed1 night instead and left . Went to La Quinta in conroe which made for more miles to drive to see my son but Much more nicer!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded February 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2017</t>
+  </si>
+  <si>
+    <t>Would not recommend this hotel to a family. Beds were horrendous and the place stunk. Then in 15 minutes I had 3 people check to see if we'd left yet including peeking in the window.  We were to stay 6 nights - stayed1 night instead and left . Went to La Quinta in conroe which made for more miles to drive to see my son but Much more nicer!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r461451864-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>461451864</t>
+  </si>
+  <si>
+    <t>Family group stay</t>
+  </si>
+  <si>
+    <t>We had five rooms for a family wedding that was in the area and stayed here . Everyone was great and accommodating for a early check in, the breakfast was great. Would stay here again if need to. Price was very reasonable!MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>We had five rooms for a family wedding that was in the area and stayed here . Everyone was great and accommodating for a early check in, the breakfast was great. Would stay here again if need to. Price was very reasonable!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r460046346-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -336,9 +507,6 @@
     <t>The entire experience was bad.  The room smelled bad the carpet was dirty the bed had bad sheets, my wife left with bites on her chest,  and the hot water was only warm.Take your money and run to another motel.  They granted a late check out but failed to inform us it was a $25.00 fee.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -375,6 +543,45 @@
     <t>My wife &amp; I stayed at the Best Western Wills on a business trip. The room was spacious and clean. The breakfast bar offered eggs, sausage, bacon, breads, muffins, waffles, French toast, cereal, milk, coffee ( 24 hours ), and juices. It was close to some fast food restaurants and the interstate. The staff was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r455329391-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>455329391</t>
+  </si>
+  <si>
+    <t>Night Entry!!!!</t>
+  </si>
+  <si>
+    <t>My mother and I were staying there in 2 separate rooms... After we went to sleep, another quest tried to enter both rooms. The front desk kept calling 1 of the rooms 3 times trying to straighten out the confusion.. This was in the middle of the night! If the door locker thing would not have been engaged...Another person would have successfully entered BOTH ROOMS after we were asleep! SCARY...NO SAFETY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My mother and I were staying there in 2 separate rooms... After we went to sleep, another quest tried to enter both rooms. The front desk kept calling 1 of the rooms 3 times trying to straighten out the confusion.. This was in the middle of the night! If the door locker thing would not have been engaged...Another person would have successfully entered BOTH ROOMS after we were asleep! SCARY...NO SAFETY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r452798751-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>452798751</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Exactly what I needed..</t>
+  </si>
+  <si>
+    <t>This place really succeeds at giving you exactly what you want. Free Wifi, clean room, nice bed..free breakfast. The staff is awesome. It's exterior is dated but it doesn't matter because it has everything else when you need an inexpensive, nice room for one night. MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>This place really succeeds at giving you exactly what you want. Free Wifi, clean room, nice bed..free breakfast. The staff is awesome. It's exterior is dated but it doesn't matter because it has everything else when you need an inexpensive, nice room for one night. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r449452827-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -450,6 +657,54 @@
     <t>For an interstate motel it is ok.Room is dated, furniture &amp; carpet are worn. No pillow top mattress.Nice size TV with 2 HBO channels. Bathroom is clean &amp; towels are fluffy. A/C works well. Free breakfast.All rooms open to the outside. Second floor rooms via stairs only.Chic-filet, Shipley's Donuts &amp; McDonalds close by.Ask for room on west side. Much quieter!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r426546019-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>426546019</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Roaches in Hotel Room</t>
+  </si>
+  <si>
+    <t>Although the beds were comfortable and the rooms were relatively clean, there were dozens of roaches crawling all over the bathroom floor and walls. At night, I was sitting on the floor and felt a roach crawl over my hand. Also, the air conditioner in one of our rooms did not work well.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2016</t>
+  </si>
+  <si>
+    <t>Although the beds were comfortable and the rooms were relatively clean, there were dozens of roaches crawling all over the bathroom floor and walls. At night, I was sitting on the floor and felt a roach crawl over my hand. Also, the air conditioner in one of our rooms did not work well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r416938883-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>416938883</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>Check in was a mess and took about 20 minutes. Front desk clerk was on the phone with her manager when we arrived so we waited several minutes. Then she gave us a smoking room when we clearly reserved non-smoking. She said she didn't have another room but I pressed so she found one and couldn't move it in the computer. Had to call manager twice to get it handled. Then she said it was my lucky day that I got a jacuzzi room. Turns out the room had a very strong scent to cover up something, the carpet and chairs were stained and there was no hot water. Check out was quicker but very unfriendly. Would not stay here again ever. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Check in was a mess and took about 20 minutes. Front desk clerk was on the phone with her manager when we arrived so we waited several minutes. Then she gave us a smoking room when we clearly reserved non-smoking. She said she didn't have another room but I pressed so she found one and couldn't move it in the computer. Had to call manager twice to get it handled. Then she said it was my lucky day that I got a jacuzzi room. Turns out the room had a very strong scent to cover up something, the carpet and chairs were stained and there was no hot water. Check out was quicker but very unfriendly. Would not stay here again ever. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r405787108-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -528,6 +783,54 @@
     <t>my stay here at best western is good as always. im getting a good deal on rates. employees are very nice and helpful.  the girls that work the front desk marlin and karina are very sweet and helpful... i have no complaints. i will be using and letting friends know. its a decent hotel to stayMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r397539042-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>397539042</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>My stay at BeSt Western</t>
+  </si>
+  <si>
+    <t>It was a very beautiful and welcoming place. The staff are so helpful and caring that the assure that I enjoy my stay at BeSt Western. The breakfast has a variety of different things which is really nice. I would compare their breakfast to Mariott. There maintenance is very good and I would recommend this place to others as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>It was a very beautiful and welcoming place. The staff are so helpful and caring that the assure that I enjoy my stay at BeSt Western. The breakfast has a variety of different things which is really nice. I would compare their breakfast to Mariott. There maintenance is very good and I would recommend this place to others as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r392517713-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>392517713</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Our stay in Willis BW</t>
+  </si>
+  <si>
+    <t>Older building but very clean and smelled nice.  Everything in working order.  There was a mini-fridge and a microwave.  Continental breakfast was good.  We asked for a room in the back away from the highway.  It was very quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Older building but very clean and smelled nice.  Everything in working order.  There was a mini-fridge and a microwave.  Continental breakfast was good.  We asked for a room in the back away from the highway.  It was very quiet.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r392280167-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -588,6 +891,51 @@
     <t>A/C didn't seem to work properly - the room felt damp and never really cooled off properly.  Bathtub DID NOT drain well at all.  Only chose this hotel because there were very limited options in the vicinity.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r388591897-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>388591897</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Over night stop</t>
+  </si>
+  <si>
+    <t>This Best Western was located off highway 45 in Willis near Conroe. I stopped here for overnight stay while I was driving back to home. Nice location. Clean room and good service. Hot breakfast and coffee in the morning was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This Best Western was located off highway 45 in Willis near Conroe. I stopped here for overnight stay while I was driving back to home. Nice location. Clean room and good service. Hot breakfast and coffee in the morning was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r387654704-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>387654704</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Clean room, very nice staff. Good, quiet location with a variety of restaurants within walking distance. Decent free breakfast, nothing fancy but good. Pet friendly which is a huge plus. We were passing through and stayed 1 night, would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Clean room, very nice staff. Good, quiet location with a variety of restaurants within walking distance. Decent free breakfast, nothing fancy but good. Pet friendly which is a huge plus. We were passing through and stayed 1 night, would definitely stay again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r385864286-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -603,9 +951,6 @@
     <t>Great place to stay. Very comfortable and close to everything. Rooms and hotels was  keep very nice &amp; staff was wonderful, everyone there was always so helpful and friendly. Would recommend this hotel if you are visiting in Willis area.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 8, 2016</t>
   </si>
   <si>
@@ -660,6 +1005,48 @@
     <t>Room was clean, staff was attentive, convenient to our family. The hotel was very quiet, no problems with getting more towels. The service was very good and great attitudes from front desk and house keeping staff. All in all it was a pleasant stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r384493954-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>384493954</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Super comfy beds with quiet atmosphere</t>
+  </si>
+  <si>
+    <t>Very pleased with this Hotel. Staff is very friendly and helpful. Our stay was short, for business over night. The beds are SUPER comfortable. Ahhhh!!!  As well, it was peaceful and quiet. If looking for a good nights rest, this is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Very pleased with this Hotel. Staff is very friendly and helpful. Our stay was short, for business over night. The beds are SUPER comfortable. Ahhhh!!!  As well, it was peaceful and quiet. If looking for a good nights rest, this is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r384089035-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>384089035</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Clean, Friendly and comfortable.</t>
+  </si>
+  <si>
+    <t>Best Western Willis located off 45. Near by restaurants like McDonald, jack in the box, subway, Pizza Hut, Burger King etc. Friendly staff, Very clean rooms, comfortable bed. The room has everything you need. Great experience overall. My stay was enjoyable. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Best Western Willis located off 45. Near by restaurants like McDonald, jack in the box, subway, Pizza Hut, Burger King etc. Friendly staff, Very clean rooms, comfortable bed. The room has everything you need. Great experience overall. My stay was enjoyable. I would definitely stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r381291924-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -735,6 +1122,48 @@
     <t>At 655AM, we went to the lobby to enjoy breakfast which we were told was available starting at 6AM.  The hotel front doors were locked and  the clerk (Carlos) was asleep in his chair. He stumbled to the door to unlock the door. The lobby and breakfast areas were dark, and the promised hot/cold breakfast was not ready.  I had to ask Carlos to turn on the lights and asked him where the breakfast is.  He mumbled it will be ready in 5 minutes.  Fifteen minutes later there was some of the breakfast items available to serve ourselves. We were rushed to eat and leave at 730. Rebecca, the incoming desk clerk tried to provide us with good customer service, but Carlos did not express any apology or concern. This is the second time I stayed in your hotel within the past 12 months, but I will be looking for different lodging the next time I'm in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r365298314-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>365298314</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Comfortable rooms.  Accommodating staff.  Easy access off the freeway.  Was there for a wedding.  Everyone who stayed there appreciated the helpfulness and courtesy of the staff.  It was a good experience.  Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Comfortable rooms.  Accommodating staff.  Easy access off the freeway.  Was there for a wedding.  Everyone who stayed there appreciated the helpfulness and courtesy of the staff.  It was a good experience.  Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r363237123-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>363237123</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>It was a very nice motel and convenient to stores and the freeway.  We enjoyed our overnight stay and will return, when we are in the area again...It is a wonderful area and we hope to plana longer trip next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a very nice motel and convenient to stores and the freeway.  We enjoyed our overnight stay and will return, when we are in the area again...It is a wonderful area and we hope to plana longer trip next time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r353809097-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -813,6 +1242,60 @@
     <t>excellent people work there at front very nice people they take care of you they friendly and house keeping they do an excellent job it was very nice and clean  my rooms and the services . breakfast very good they have a lot of chooses you can pick from .More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r341106613-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>341106613</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>The hotel was clean, the staff was friendly &amp; accommodating. Breakfast selection was average for this venue of motel. The hotel location was convenient, but so close to the interstate it was very noisy!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean, the staff was friendly &amp; accommodating. Breakfast selection was average for this venue of motel. The hotel location was convenient, but so close to the interstate it was very noisy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r329128630-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>329128630</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>What a shock</t>
+  </si>
+  <si>
+    <t>I traveled  by car for 2 days to get to willis because my mother was having ioen heart surgery. ....i took a shower and used my towel....put make up on and cleaned my hand with hand towel and make up on it..  i also cleaned up some dr pepper i spilled....when i got back from hospital  took my towels back and ask for more... plus coffee and toliet paper and tge man at the desk was the rudest man ever in hospitality  i have ever seen....he tried to charge my card without telling me 50 dollars...he refused to give me any more towels or anything  else ....he would not tell me when his boss was going to be on duty....he was laughing at me....told me to leave if i didnt like it.....tomorrow  is  thanksgiving. ...my mither is ill....i dont understand  why someone  would treat u that way in a hotel.....i work as a house keeper....for the past 10 yrs...  we throw towels away or use them for rags. ..we give our people that stay with us what you hey need....treat them with respect and like family ...im shocked at the way ive been treated..   i have cried all night.......i will never un my life ever spend another dime at a best western again.... we treat our guest very well at the hotel i work at. .  We would be fired if we treated someone the way he treated me.....so upset......I traveled  by car for 2 days to get to willis because my mother was having ioen heart surgery. ....i took a shower and used my towel....put make up on and cleaned my hand with hand towel and make up on it..  i also cleaned up some dr pepper i spilled....when i got back from hospital  took my towels back and ask for more... plus coffee and toliet paper and tge man at the desk was the rudest man ever in hospitality  i have ever seen....he tried to charge my card without telling me 50 dollars...he refused to give me any more towels or anything  else ....he would not tell me when his boss was going to be on duty....he was laughing at me....told me to leave if i didnt like it.....tomorrow  is  thanksgiving. ...my mither is ill....i dont understand  why someone  would treat u that way in a hotel.....i work as a house keeper....for the past 10 yrs...  we throw towels away or use them for rags. ..we give our people that stay with us what you hey need....treat them with respect and like family ...im shocked at the way ive been treated..   i have cried all night.......i will never un my life ever spend another dime at a best western again.... we treat our guest very well at the hotel i work at. .  We would be fired if we treated someone the way he treated me.....so upset... confused. .. and in shock. .....i hope and pray the mng can give me some answers....i do not recommend this  placeMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded January 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2016</t>
+  </si>
+  <si>
+    <t>I traveled  by car for 2 days to get to willis because my mother was having ioen heart surgery. ....i took a shower and used my towel....put make up on and cleaned my hand with hand towel and make up on it..  i also cleaned up some dr pepper i spilled....when i got back from hospital  took my towels back and ask for more... plus coffee and toliet paper and tge man at the desk was the rudest man ever in hospitality  i have ever seen....he tried to charge my card without telling me 50 dollars...he refused to give me any more towels or anything  else ....he would not tell me when his boss was going to be on duty....he was laughing at me....told me to leave if i didnt like it.....tomorrow  is  thanksgiving. ...my mither is ill....i dont understand  why someone  would treat u that way in a hotel.....i work as a house keeper....for the past 10 yrs...  we throw towels away or use them for rags. ..we give our people that stay with us what you hey need....treat them with respect and like family ...im shocked at the way ive been treated..   i have cried all night.......i will never un my life ever spend another dime at a best western again.... we treat our guest very well at the hotel i work at. .  We would be fired if we treated someone the way he treated me.....so upset......I traveled  by car for 2 days to get to willis because my mother was having ioen heart surgery. ....i took a shower and used my towel....put make up on and cleaned my hand with hand towel and make up on it..  i also cleaned up some dr pepper i spilled....when i got back from hospital  took my towels back and ask for more... plus coffee and toliet paper and tge man at the desk was the rudest man ever in hospitality  i have ever seen....he tried to charge my card without telling me 50 dollars...he refused to give me any more towels or anything  else ....he would not tell me when his boss was going to be on duty....he was laughing at me....told me to leave if i didnt like it.....tomorrow  is  thanksgiving. ...my mither is ill....i dont understand  why someone  would treat u that way in a hotel.....i work as a house keeper....for the past 10 yrs...  we throw towels away or use them for rags. ..we give our people that stay with us what you hey need....treat them with respect and like family ...im shocked at the way ive been treated..   i have cried all night.......i will never un my life ever spend another dime at a best western again.... we treat our guest very well at the hotel i work at. .  We would be fired if we treated someone the way he treated me.....so upset... confused. .. and in shock. .....i hope and pray the mng can give me some answers....i do not recommend this  placeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r328708982-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -828,9 +1311,6 @@
     <t>The Service was great and the staff was very friendly. The room was very clean and the prices were affordable. The front desk person was very helpful and friendly. The best part of the stay was the breakfast, the food was well prepared and organized.MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded December 18, 2015</t>
   </si>
   <si>
@@ -882,6 +1362,48 @@
     <t>Great place to stay while visiting the area. Clean room comfortable bed and pillows; TV, free WiFi, all amenities available. Safe. Secure. Quiet. Excellent accommodating staff and housekeeping team. Children are welcomed. Nice variety of breakfast foods for guests. Walking distance to a few fast food venues and Baptist Church. Very convenient to grocery store, shopping and other establishments.  Right off of N45. You can see it from the freeway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r325009510-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>325009510</t>
+  </si>
+  <si>
+    <t>Ask for a back room!</t>
+  </si>
+  <si>
+    <t>The hotel faces the interstate and you can hear the road at night.  The AC is very cold and the bed is very comfortable.  The have a very nice breakfast but if you want a little more than walk to the doughnut shop, it is 20 yards away and worth it!I saw they had a handicap chair for their pool and that really impressed me.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel faces the interstate and you can hear the road at night.  The AC is very cold and the bed is very comfortable.  The have a very nice breakfast but if you want a little more than walk to the doughnut shop, it is 20 yards away and worth it!I saw they had a handicap chair for their pool and that really impressed me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r319216075-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>319216075</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Location was very convenient.  Breakfast was ample.  I would recommend this location.  It does face Highway 45, so there is some road noise if you are located on the highway side (I was but did not have a problem sleeping).  If you think this will be a concern ask for the other side.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>javed a, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Location was very convenient.  Breakfast was ample.  I would recommend this location.  It does face Highway 45, so there is some road noise if you are located on the highway side (I was but did not have a problem sleeping).  If you think this will be a concern ask for the other side.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r312251711-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1479,57 @@
     <t>A very good motel for a pretty fair price. A motel with external doors (to the outside) can typically be a bit noisy and with just a few other guests during our stay, this was true. (A few people talking outside; nearby doors slamming, traffic noise, etc.)    The front desk staff were very friendly and courteous. The breakfast was good except there was never any bacon during our 3 mornings there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r295455467-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>295455467</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>nice for a one night stop</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night after being on the road too long. It was clean and comfortable. It was simple, which was all we needed. The shower and bathroom was large. There was also coffee in the room which was a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded August 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for one night after being on the road too long. It was clean and comfortable. It was simple, which was all we needed. The shower and bathroom was large. There was also coffee in the room which was a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r290955642-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>290955642</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>Very nice hotel and extremely friendly staff. Pool was very clean and area well taken care of. Extremely easy to get off main highway. Price was a little higher then we wanted but the staff more then made up for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel and extremely friendly staff. Pool was very clean and area well taken care of. Extremely easy to get off main highway. Price was a little higher then we wanted but the staff more then made up for it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r289716276-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -972,9 +1545,6 @@
     <t>The room was clean and comfortable. We used our points for a free night but we were treated as if we were paying full price. Plenty of restaurants nearby and the property was easy to access from the interstate. The pool was sparkling. Would definitely sty there again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded July 18, 2015</t>
   </si>
   <si>
@@ -1026,6 +1596,51 @@
     <t>I stayed in one of the ground floor rooms for the night. The room was clean but smelled musty. The ironing board had a pretty big stain on it that would draw my eye when I'd pass by. The shower head had mineral buildup on it, but it still worked pretty good, although a 8-10 minute  shower will leave you with about 8 - 10 inches of water around my legs. The bed was comfortable and there were plenty of pillows. The pool was small but nice, with a handicap chair lift. Overall it was an okay stay. It seems to me that it's more in line with what you'd expect from a budget hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r274988017-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>274988017</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stop</t>
+  </si>
+  <si>
+    <t>I was staying at the Best Western because I had business in Huntsville 20 minutes away.  New facility. Rooms were very clean and well kept.  It was quiet.  I did not eat the breakfast or go around the office.  This is accessible to the inmterstate once you figure out you can turn left as the one way starts just beyond the street.  It is a little hard to get to but once you figure it out it is fine.  Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>I was staying at the Best Western because I had business in Huntsville 20 minutes away.  New facility. Rooms were very clean and well kept.  It was quiet.  I did not eat the breakfast or go around the office.  This is accessible to the inmterstate once you figure out you can turn left as the one way starts just beyond the street.  It is a little hard to get to but once you figure it out it is fine.  Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r270075337-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>270075337</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Deceptive Reward Program</t>
+  </si>
+  <si>
+    <t>I had TWO stays in this hotel which would qualify for a $50 reward card. I checked in on 4/27 and checked out on the 4/28. I removed all my possessions for the room at that time. I had to come back later in the evening and check back in. That was the SECOND stay. According to the BW Rewards Program, that only counts as one stay. I might agree if I had left my possessions in the room. I did not. I removed them and checked back in. TWO STAYS.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had TWO stays in this hotel which would qualify for a $50 reward card. I checked in on 4/27 and checked out on the 4/28. I removed all my possessions for the room at that time. I had to come back later in the evening and check back in. That was the SECOND stay. According to the BW Rewards Program, that only counts as one stay. I might agree if I had left my possessions in the room. I did not. I removed them and checked back in. TWO STAYS.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r268989314-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1041,9 +1656,6 @@
     <t>I was on business in Willis, Texas and stayed at this Best Western because of its convenience to where I was working. Upon check-in I was treated rudely when I asked about the corporate direct pay. In fact I had to get corporate to call and sort it out. The room smelled of smoke, the internet was very poor, and the noise was pretty bad. Not, to mention that it is very difficult to get to from highway 45. We had a storm and the power went out and there is no generator so it did not take long for the humidity to take over the room. All in All it would not have been too bad of a stay if the staff would have been a little more accommodating and friendly.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>I was on business in Willis, Texas and stayed at this Best Western because of its convenience to where I was working. Upon check-in I was treated rudely when I asked about the corporate direct pay. In fact I had to get corporate to call and sort it out. The room smelled of smoke, the internet was very poor, and the noise was pretty bad. Not, to mention that it is very difficult to get to from highway 45. We had a storm and the power went out and there is no generator so it did not take long for the humidity to take over the room. All in All it would not have been too bad of a stay if the staff would have been a little more accommodating and friendly.More</t>
   </si>
   <si>
@@ -1101,6 +1713,51 @@
     <t>Door was hard to open.I had to call front desk  twice to get help to open the door.I have read other reviews with the same complaint. One of the lamp had a broke switch. The microwave and the refrigerator worked good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r246288609-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>246288609</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Best Western Willis, Tx</t>
+  </si>
+  <si>
+    <t>This hotel is clean and very well maintained. The price is nominal and a good deal for a night or a week. Good beds. It is close to a city and just a few miles from The Woodlands. We stay here whenever we have out of town guests. If you don't want their breakfast, there are plenty of other choices very close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>javed a, General Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is clean and very well maintained. The price is nominal and a good deal for a night or a week. Good beds. It is close to a city and just a few miles from The Woodlands. We stay here whenever we have out of town guests. If you don't want their breakfast, there are plenty of other choices very close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r239427041-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>239427041</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>best value for themoney</t>
+  </si>
+  <si>
+    <t>I spend 150+ days a year on the road. This hotel is the best value for the price they charge. I would definitely consider staying there when business call for trip in the area. Friendly staff and management.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r236862708-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1116,9 +1773,6 @@
     <t>This is a decent  place in Willis. Room was fine and bed decent. Breakfast was minimal compared to some. Checked out one room and smelled sour so did find another that was fine.  Desk help was nice. Parking good and lit.  Compared to some other places price reasonable.</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r234968586-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1149,24 +1803,54 @@
     <t>Door to our room wouldn't open with activated card. We were told we to pull on the door handle, then swipe quickly &amp; push down the handle at just the right time. Can you believe this? It's a puzzle!!! We should have gotten a prizes each time we got it open after several tries. Night front desk staff was rude also.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r229117526-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>229117526</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Little Hard To Find But Worth It</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable rooms with two queens, micro fridge and microwave. Stayed there three days . Even though the property is right on I-45, the rooms are completely quiet; couldn't hear a noise at night at all. Tasty and hot eggs with sausage and Texas shaped waffle along with the other expected items. Convenience stores and HEB are within walking distance.  Access is from frontage road and difficult to see at night. WiFi was very good in the room.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r226295201-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>226295201</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Average Room - Good for what it is</t>
+  </si>
+  <si>
+    <t>We stayed here unexpectedly when our resort overbooked.  The front desk staff was very nice and accommodating.  The room was clean and the beds were comfortable.  The rooms had refrigerators which is always convenient.  This certainly is not a luxury hotel but it's good for what it is, which is an average motel.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r226559736-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
     <t>226559736</t>
   </si>
   <si>
-    <t>09/02/2014</t>
-  </si>
-  <si>
     <t>Bad beds</t>
   </si>
   <si>
     <t>Staff was not very helpful and the beds were horrible. When told of the problem and asked to move to another room the staff was not helpful at all.  In fact they made it so difficult that we just stayed in the room we were in as it was going to be a act of Congress to get moved to another room.  Pool was always locked and was not really kept that clean.  Breakfast was a joke.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r224946503-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1884,39 @@
     <t>We arrived after midnight....staff at check in was very nice.  Room was very comfortable....we slept well. We were on the back side of hotel, which was very quite.  Easy to miss turn on road....we had to go to next exit and come back.....We will stay here again.....</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r219610147-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>219610147</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Regular Guests</t>
+  </si>
+  <si>
+    <t>My husband and I, and his extended family, stayed at this hotel this past weekend when we drove up to attend our nephew's wedding. We also stay at this hotel location whenever we come up to visit family. We have not ever had any problems and have been pleased with each of our stays. We have been guests at this hotel for several years.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r216849563-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>216849563</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Average Does Not Mean Bad</t>
+  </si>
+  <si>
+    <t>When recently traveling in Texas, late, I stopped at this motel. The staff was friendly, even late in the evening. Quick check in and a room with a door tot he outside. Room was reasonable. Bed was comfortable, the A/C worked fine. The shower was average. The breakfast was also OK. Not as good as many motels but for the price of the room, it was adequate. All in all, the motel was "average" which made it a very good value and perfect for a quick, late not stop in.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r212561815-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1968,42 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r206614422-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>206614422</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>This is one of the worst Best Westerns I have EVER stayed in.</t>
+  </si>
+  <si>
+    <t>First the location of the hotel is hard to find.  Second, when I checked in they couldn't find my Reward number, so we used my mom's (which that was fine), but after I checked into the room I realized we should have gotten the AAA or the Senior Citizen rate (my mom is 79) and IMMEDIATELY returned to the front desk and they refused to give us the reduced rate… saying we had already checked in and at this point it is non-negotiable.  Ok, so I asked to speak with the manager and I was told I could not…. they were not available.  "Well, when will they be available?"  "Not until tomorrow after 10:00"…..  It was clear they don't do complaints.  It's Ok.  They have lost me for life, but the room wasn't clean and the traffic is terrible.  I would go to the next town.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>First the location of the hotel is hard to find.  Second, when I checked in they couldn't find my Reward number, so we used my mom's (which that was fine), but after I checked into the room I realized we should have gotten the AAA or the Senior Citizen rate (my mom is 79) and IMMEDIATELY returned to the front desk and they refused to give us the reduced rate… saying we had already checked in and at this point it is non-negotiable.  Ok, so I asked to speak with the manager and I was told I could not…. they were not available.  "Well, when will they be available?"  "Not until tomorrow after 10:00"…..  It was clear they don't do complaints.  It's Ok.  They have lost me for life, but the room wasn't clean and the traffic is terrible.  I would go to the next town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r206422815-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>206422815</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Extremely Disappointed</t>
+  </si>
+  <si>
+    <t>This is one of the worse Best Western I have stayed at; and it sad as in April 2014 I stayed at one of the best (Hot Spring AR).  The room was dirty, the toilet ran all night, noise from IH45 traffic.  The cost was high for the value or lack of value.  I would not recommend this to anyone traveling.  We actually booked on-line since it was late at night and we wanted a saving -- wrong.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r201138621-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +2019,6 @@
     <t>The first challenge was to find the driveway to the place.  I missed it the first go around and had to go sound on I10 to the next exit and take another shot at it.  Luckily, it was not dark yet and I could deduce my path visually.  There were no helpful signs for the hotel until you get to the hotel. I came for a horse related activity.  I was driving my F350. The next challenge was to find a place to park it in the small parking lot so that I did not block others.  Luckily, there were not many vehicles in the parking lot. The hotel is older, well kept but not new.  It sits facing I10.  My assigned room was on the front side and I quickly determined the the traffic noise was going to be a problem.  Going back to the front desk, I asked for a room on the back side.  The woman manning the desk was helpful and proceeded to change my room. It turned out that room was already occupied by a couple who had changed their assigned room since it was not ready.  The change had not been noted.  It took a while to determine which room might be unoccupied and made up.  Rushing to get ready to go out to eat, I had trouble with getting my door to open.  After using the card and noting the green flashing light,...The first challenge was to find the driveway to the place.  I missed it the first go around and had to go sound on I10 to the next exit and take another shot at it.  Luckily, it was not dark yet and I could deduce my path visually.  There were no helpful signs for the hotel until you get to the hotel. I came for a horse related activity.  I was driving my F350. The next challenge was to find a place to park it in the small parking lot so that I did not block others.  Luckily, there were not many vehicles in the parking lot. The hotel is older, well kept but not new.  It sits facing I10.  My assigned room was on the front side and I quickly determined the the traffic noise was going to be a problem.  Going back to the front desk, I asked for a room on the back side.  The woman manning the desk was helpful and proceeded to change my room. It turned out that room was already occupied by a couple who had changed their assigned room since it was not ready.  The change had not been noted.  It took a while to determine which room might be unoccupied and made up.  Rushing to get ready to go out to eat, I had trouble with getting my door to open.  After using the card and noting the green flashing light, the door would not open.  After many ties, I got lucky.  Turns out, other people all had the same problem.  Once back in the room, I tries to use internet.  Since you have to get the code from the front desk, I went to call on the room phone.  It was non-functional.  I made the call from my cell phone and got the code.   The room was clean and comfortable.  The bathroom was very clean and all the fixtures worked well.  I had a good night's sleep.  The breakfast room was small but the breakfast was good.  Bringing my iPad with me, I thought I would read the NY Times.  But no, the internet in the lobby and breakfast room is locked and the guests cannot use it.  Internet is only available in the rooms.  That is a head-scratcher since it is usually the other way around.  Trying to open the door again after breakfast, I thought I might have to get the front desk to come open the door for me but after 20 tries, it opened and I was able to get my stuff and check out.     For this, with the Senior Discount, I paid $95.  Not outrageous but still a little pricey for rural Texas for these accommodations I thought.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>Neil P, Manager at Red Roof Inn Conroe North-Willis, responded to this reviewResponded May 6, 2014</t>
   </si>
   <si>
@@ -1317,6 +2067,33 @@
     <t>this is one the better best westerns Ive stayed at in a while and reaffirmed my faith in what used to be my very favorite chains. the rooms were really clean, well laid out and I seriously enjoyed the "sitting room"More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r200168900-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>200168900</t>
+  </si>
+  <si>
+    <t>Room was clean,staff was great,breakfast was excellent. We stayed while attending a wedding in the area. We checked in showered and dressed for wedding..returned after and slept like a baby.  Notice the next morning many guest at the wedding had stay there as well. Great time enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean,staff was great,breakfast was excellent. We stayed while attending a wedding in the area. We checked in showered and dressed for wedding..returned after and slept like a baby.  Notice the next morning many guest at the wedding had stay there as well. Great time enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r198861007-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>198861007</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Hotel Ok/Food Terrible</t>
+  </si>
+  <si>
+    <t>worst breakfast I have had at any hotel-eggs horrible-very small dining room-small selection.Rooms too close to freeway unless you take back side there is lots of freeway noise. However ;center location and courteous,pleasant staff.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r197240086-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +2157,42 @@
     <t>Galveston's port was foggy and our trip back to Dallas had to be postponed. Seeing  the Best Western sign was a Godsend for us. The room was very clean, we appreciated the microwave and fridge.  The comfort of the bed was so nice that we fell asleep the moment our heads touched the pillow. Nice shower head too. The continental breakfast was not the usual cuisine. Tasty and hot eggs with sausage and Texas shaped waffle along with the other expected items. Coffee was better than most, too.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r195212426-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>195212426</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Horrible Management!!</t>
+  </si>
+  <si>
+    <t>Horrible, horrible, horrible!! I booked a hotel for a family gathering for that weekend, everything was great (at first) they had hotel rooms available and for a decent price as well. We get to the hotel(like I said great at first) then.. As I was trying to get into my room, my door would not open. It was jammed! So I tried "putting my shoulder into it" and got a complaint!! The manager came up and just went off on me saying I was being too loud.. he just kept going on and on..he could have just stopped there. THEN my family members were staying in a hotel a door down and they told me that 2 people came in their room. She got a good look at the first one and said it was the Manager that was working the night she checked into the hotel..they walked into her room at 3:00 in the morning saying that the "room needed to be cleaned" at 3 in the morning?? Something fishy was going on.. No one cleans a hotel room at 3 in the morning.. They walked inside the room and noticed there were 2 guys on the other bed.. they probably thought it was just girls staying in that room! Also, they have complimentary breakfast.. it's in a tiny little room with 2 tables. It was a 30 minute wait for breakfast. Definitely not enough room to eat breakfast!...Horrible, horrible, horrible!! I booked a hotel for a family gathering for that weekend, everything was great (at first) they had hotel rooms available and for a decent price as well. We get to the hotel(like I said great at first) then.. As I was trying to get into my room, my door would not open. It was jammed! So I tried "putting my shoulder into it" and got a complaint!! The manager came up and just went off on me saying I was being too loud.. he just kept going on and on..he could have just stopped there. THEN my family members were staying in a hotel a door down and they told me that 2 people came in their room. She got a good look at the first one and said it was the Manager that was working the night she checked into the hotel..they walked into her room at 3:00 in the morning saying that the "room needed to be cleaned" at 3 in the morning?? Something fishy was going on.. No one cleans a hotel room at 3 in the morning.. They walked inside the room and noticed there were 2 guys on the other bed.. they probably thought it was just girls staying in that room! Also, they have complimentary breakfast.. it's in a tiny little room with 2 tables. It was a 30 minute wait for breakfast. Definitely not enough room to eat breakfast! Management is horrible! I told them what had happen the night before about management walking into the hotel room and she acted like she didn't care! So, I asked to speak to the actual manager and she was not going to be there until Tuesday.. so I told her that I wanted a call from her (Mrs. Sheila).. and of course I heard nothing back!  DO NOT STAY HERE!!! FIND ANOTHER HOTEL UNLESS YOU WANT TO GET WALKED IN ON WHILE YOU ARE SLEEPING!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible, horrible, horrible!! I booked a hotel for a family gathering for that weekend, everything was great (at first) they had hotel rooms available and for a decent price as well. We get to the hotel(like I said great at first) then.. As I was trying to get into my room, my door would not open. It was jammed! So I tried "putting my shoulder into it" and got a complaint!! The manager came up and just went off on me saying I was being too loud.. he just kept going on and on..he could have just stopped there. THEN my family members were staying in a hotel a door down and they told me that 2 people came in their room. She got a good look at the first one and said it was the Manager that was working the night she checked into the hotel..they walked into her room at 3:00 in the morning saying that the "room needed to be cleaned" at 3 in the morning?? Something fishy was going on.. No one cleans a hotel room at 3 in the morning.. They walked inside the room and noticed there were 2 guys on the other bed.. they probably thought it was just girls staying in that room! Also, they have complimentary breakfast.. it's in a tiny little room with 2 tables. It was a 30 minute wait for breakfast. Definitely not enough room to eat breakfast!...Horrible, horrible, horrible!! I booked a hotel for a family gathering for that weekend, everything was great (at first) they had hotel rooms available and for a decent price as well. We get to the hotel(like I said great at first) then.. As I was trying to get into my room, my door would not open. It was jammed! So I tried "putting my shoulder into it" and got a complaint!! The manager came up and just went off on me saying I was being too loud.. he just kept going on and on..he could have just stopped there. THEN my family members were staying in a hotel a door down and they told me that 2 people came in their room. She got a good look at the first one and said it was the Manager that was working the night she checked into the hotel..they walked into her room at 3:00 in the morning saying that the "room needed to be cleaned" at 3 in the morning?? Something fishy was going on.. No one cleans a hotel room at 3 in the morning.. They walked inside the room and noticed there were 2 guys on the other bed.. they probably thought it was just girls staying in that room! Also, they have complimentary breakfast.. it's in a tiny little room with 2 tables. It was a 30 minute wait for breakfast. Definitely not enough room to eat breakfast! Management is horrible! I told them what had happen the night before about management walking into the hotel room and she acted like she didn't care! So, I asked to speak to the actual manager and she was not going to be there until Tuesday.. so I told her that I wanted a call from her (Mrs. Sheila).. and of course I heard nothing back!  DO NOT STAY HERE!!! FIND ANOTHER HOTEL UNLESS YOU WANT TO GET WALKED IN ON WHILE YOU ARE SLEEPING!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r194803801-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>194803801</t>
+  </si>
+  <si>
+    <t>02/20/2014</t>
+  </si>
+  <si>
+    <t>Reward yourself</t>
+  </si>
+  <si>
+    <t>Best Western at this location deserve a "10",  is what you are expecting after a long drive, nice rest, new showers, awesome coffee and great attention from at your arrival. I Been every ware. if you are close by, stop right here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Best Western at this location deserve a "10",  is what you are expecting after a long drive, nice rest, new showers, awesome coffee and great attention from at your arrival. I Been every ware. if you are close by, stop right here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r193027259-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1428,6 +2241,48 @@
     <t>We only Stayed one night, but I expected this hotel to be the quality of Best Western.  Of Course Willis , Texas is not a place many people go and I would never go again.  The hotel is old, on I 45 which is convenient but I would go farther down to Conroe to stay rather than do this again.  The breakfast they offer is a joke.On the positive the staff on the front desk  at night was fantastic.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r185920898-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>185920898</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Don't bother</t>
+  </si>
+  <si>
+    <t>You're better off driving on into Conroe! Besides there's NO access from the access road. We had to turn around and come back to it. Should have taken that as a sign to keep going.  The breakfast area and items was pitiful. The area was waaaaayyyyyy too small and the items were non-existent. I had to ask for more waffle batter and forks. Not impressed for the money I paid. Would have expected this kind of "quality" for less than $70, but I paid more than that. I expect more from even Best Western...but the sign on the wall did say it was "independently owned and operated." Maybe that was the reason, I don't know.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>You're better off driving on into Conroe! Besides there's NO access from the access road. We had to turn around and come back to it. Should have taken that as a sign to keep going.  The breakfast area and items was pitiful. The area was waaaaayyyyyy too small and the items were non-existent. I had to ask for more waffle batter and forks. Not impressed for the money I paid. Would have expected this kind of "quality" for less than $70, but I paid more than that. I expect more from even Best Western...but the sign on the wall did say it was "independently owned and operated." Maybe that was the reason, I don't know.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r182136294-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>182136294</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Average in area where there is nothing else</t>
+  </si>
+  <si>
+    <t>We came to visit the grand kids in Willis and wanted someplace close to them.  We could have gone to Conroe, but we would be driving back and forth, so our son recommend this hotel.  The rooms were cleaned, beds were comfortable, quiet rooms (even when it was filled up) and good size bathrooms.  It is one of the better 2 star hotels that I have stayed in and would recommend it for the area price wise. Compare to what is available in Willis-Conroe, this is a good value.  You get free breakfast, internet and parking, staff we're accommodating, it is close to a grocery store, gas station and other fast-food chains.  Definitely good for families on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We came to visit the grand kids in Willis and wanted someplace close to them.  We could have gone to Conroe, but we would be driving back and forth, so our son recommend this hotel.  The rooms were cleaned, beds were comfortable, quiet rooms (even when it was filled up) and good size bathrooms.  It is one of the better 2 star hotels that I have stayed in and would recommend it for the area price wise. Compare to what is available in Willis-Conroe, this is a good value.  You get free breakfast, internet and parking, staff we're accommodating, it is close to a grocery store, gas station and other fast-food chains.  Definitely good for families on a budget.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r181763176-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1443,9 +2298,6 @@
     <t>Nice place and mostly worth the price paid. However, the breakfast area is poorly planned and was not staffed the morning we were there. The front desk clerk was doing double duty trying to keep up with her regular desk duties and keeping the breakfast area stocked. Additionally, the breakfast area was very cramped and poorly laid out, They really need to take the wall down between the lobby and the breakfast area. We ended up sitting in the lobby at on a sofa.</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r172782552-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +2337,45 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r160601837-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>160601837</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>An average option</t>
+  </si>
+  <si>
+    <t>I have spent one night while driving to Dallas. The hotel is just off of I-45 South. Not easy to get to the hotel because of the construction around the área. The rooms are large, dated but clean (exterior and interior). The bathroom need an upgrade soon. Breakfast is OK.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r159973533-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>159973533</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Half of the hotel room doors face the interstate so we heard vehicles whizzing by all night.  The hotel walls are not well sound proofed.  I had to call the front desk to get the patron to turn down his music so my family and I could hear the TV.  A couple of hours after we went to bed, we were awoken by patrons who were talking and laughing very loudly on the front sidewalk.  The front desk was responsive.  There was also a strong smoke odor in our room.  It didn't seem to be because someone had smoked in the room, but because patrons were standing on the front sidewalk and the intake for the air conditioners was drawing on the smoke filled air.  Poorly designed hotel.  Was not up to the standards of what I have experienced at other Best Western Hotels throughout the US.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Half of the hotel room doors face the interstate so we heard vehicles whizzing by all night.  The hotel walls are not well sound proofed.  I had to call the front desk to get the patron to turn down his music so my family and I could hear the TV.  A couple of hours after we went to bed, we were awoken by patrons who were talking and laughing very loudly on the front sidewalk.  The front desk was responsive.  There was also a strong smoke odor in our room.  It didn't seem to be because someone had smoked in the room, but because patrons were standing on the front sidewalk and the intake for the air conditioners was drawing on the smoke filled air.  Poorly designed hotel.  Was not up to the standards of what I have experienced at other Best Western Hotels throughout the US.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r157141132-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +2427,39 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r152436985-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>152436985</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a smoker, so it was so relaxing to be able to have a cigarette in my own privacy. I liked the location it is close to food outlets shopping also you have a nice area to go for a walk or a run. Thank You. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r151276889-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>151276889</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>DON'T waste your time, untrained, unprofessional,</t>
+  </si>
+  <si>
+    <t>We had the desk clerk, Derrick, at the Best Western in Ardmore, OK, call and make our reservation in Wills, TX for the following night because we were so impressed with the Ardmore facility.  My husband stood right there when he made the reservation for us and got a print out of the confirmation.  Derrick talked to Karina at the Willis, TX Best Western when he made our reservation.  Upon arriving at the Best Western in Willis, TX the girl at the desk was immediately confused.  She couldn't find our reservation. I showed her the confirmation print out and she finally found it and said it was for the previous night and we had been charged a "NO SHOW" on the room to INCLUDE a $25 PET FEE.  We asked how it was possible for us to have a reservation there when we were standing at the desk in Ardmore.  She said she could "comp" us a room for the night, but would be charged a $25 non refundable pet fee...Which was totally out of line....We said we weren't interested and did NOT want anything charged to our credit card.  She said it was already done.  We asked to talk to the manager and she said we would have to call back on Monday since it was Saturday night and she was out of town.  She was NOT willing to work with us and was NOT friendly.  In fact she...We had the desk clerk, Derrick, at the Best Western in Ardmore, OK, call and make our reservation in Wills, TX for the following night because we were so impressed with the Ardmore facility.  My husband stood right there when he made the reservation for us and got a print out of the confirmation.  Derrick talked to Karina at the Willis, TX Best Western when he made our reservation.  Upon arriving at the Best Western in Willis, TX the girl at the desk was immediately confused.  She couldn't find our reservation. I showed her the confirmation print out and she finally found it and said it was for the previous night and we had been charged a "NO SHOW" on the room to INCLUDE a $25 PET FEE.  We asked how it was possible for us to have a reservation there when we were standing at the desk in Ardmore.  She said she could "comp" us a room for the night, but would be charged a $25 non refundable pet fee...Which was totally out of line....We said we weren't interested and did NOT want anything charged to our credit card.  She said it was already done.  We asked to talk to the manager and she said we would have to call back on Monday since it was Saturday night and she was out of town.  She was NOT willing to work with us and was NOT friendly.  In fact she was pretty snippy.  I called our credit card company right then and started a dispute report on the charge.  Then I called Derrick at the Best Western in Ardmore to see what he would suggest.  We found out the girl at the desk in Willis, Karina, was the same one he talked to the previous night to make the reservation.  He asked to speak to her. She wouldn't listen to him and kept talking over him.  It was apparent that she had messed up, but wasn't willing to admit it.  I talked to Derrick again and he gave me the central reservation number to call and explain to them what was going on.  So, my husband and I went out to the car to make that call from the parking lot.  I talked to Stacy and she was very helpful and understanding.  She took my statement then put me on hold while she called Karina inside the Hotel to get things straightened out.  When she came back on the line, she informed me that any charges to my credit card would be cancelled and was very sorry for the confusion.   I would NOT stay at this hotel on a bet.  NOT only was I NOT impressed with the desk staff, I was NOT impressed with what I saw of the facility.  The lobby was small and not very welcoming.  When diving away, my comment to my husband was, this motel can't afford to chase people away like Karina did to us.  There were only 8 to 10 cars in the parking lot an this was on a Saturday night.  NOT good business...There are MUCH nicer motels just a little ways north.  In fact we stayed at the LaQuinta.  Others in the Area include Motel 6, Days Inn and Quality Inn...Do yourself a favor and stay in one of these.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had the desk clerk, Derrick, at the Best Western in Ardmore, OK, call and make our reservation in Wills, TX for the following night because we were so impressed with the Ardmore facility.  My husband stood right there when he made the reservation for us and got a print out of the confirmation.  Derrick talked to Karina at the Willis, TX Best Western when he made our reservation.  Upon arriving at the Best Western in Willis, TX the girl at the desk was immediately confused.  She couldn't find our reservation. I showed her the confirmation print out and she finally found it and said it was for the previous night and we had been charged a "NO SHOW" on the room to INCLUDE a $25 PET FEE.  We asked how it was possible for us to have a reservation there when we were standing at the desk in Ardmore.  She said she could "comp" us a room for the night, but would be charged a $25 non refundable pet fee...Which was totally out of line....We said we weren't interested and did NOT want anything charged to our credit card.  She said it was already done.  We asked to talk to the manager and she said we would have to call back on Monday since it was Saturday night and she was out of town.  She was NOT willing to work with us and was NOT friendly.  In fact she...We had the desk clerk, Derrick, at the Best Western in Ardmore, OK, call and make our reservation in Wills, TX for the following night because we were so impressed with the Ardmore facility.  My husband stood right there when he made the reservation for us and got a print out of the confirmation.  Derrick talked to Karina at the Willis, TX Best Western when he made our reservation.  Upon arriving at the Best Western in Willis, TX the girl at the desk was immediately confused.  She couldn't find our reservation. I showed her the confirmation print out and she finally found it and said it was for the previous night and we had been charged a "NO SHOW" on the room to INCLUDE a $25 PET FEE.  We asked how it was possible for us to have a reservation there when we were standing at the desk in Ardmore.  She said she could "comp" us a room for the night, but would be charged a $25 non refundable pet fee...Which was totally out of line....We said we weren't interested and did NOT want anything charged to our credit card.  She said it was already done.  We asked to talk to the manager and she said we would have to call back on Monday since it was Saturday night and she was out of town.  She was NOT willing to work with us and was NOT friendly.  In fact she was pretty snippy.  I called our credit card company right then and started a dispute report on the charge.  Then I called Derrick at the Best Western in Ardmore to see what he would suggest.  We found out the girl at the desk in Willis, Karina, was the same one he talked to the previous night to make the reservation.  He asked to speak to her. She wouldn't listen to him and kept talking over him.  It was apparent that she had messed up, but wasn't willing to admit it.  I talked to Derrick again and he gave me the central reservation number to call and explain to them what was going on.  So, my husband and I went out to the car to make that call from the parking lot.  I talked to Stacy and she was very helpful and understanding.  She took my statement then put me on hold while she called Karina inside the Hotel to get things straightened out.  When she came back on the line, she informed me that any charges to my credit card would be cancelled and was very sorry for the confusion.   I would NOT stay at this hotel on a bet.  NOT only was I NOT impressed with the desk staff, I was NOT impressed with what I saw of the facility.  The lobby was small and not very welcoming.  When diving away, my comment to my husband was, this motel can't afford to chase people away like Karina did to us.  There were only 8 to 10 cars in the parking lot an this was on a Saturday night.  NOT good business...There are MUCH nicer motels just a little ways north.  In fact we stayed at the LaQuinta.  Others in the Area include Motel 6, Days Inn and Quality Inn...Do yourself a favor and stay in one of these.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r148623382-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
   </si>
   <si>
@@ -1597,6 +2521,48 @@
   </si>
   <si>
     <t>not too many choices in Willis.   I stayed here about 8 yrs ago and can't see that anything changed.  The place is clean,  staff friendly, rates reasonable, pool sparkles.   It's even more tricky to get to the motel because of construction.  The door to my room was very difficult to open.   Beds are comfy &amp; shower powerful and hot.  The TV remote didn't work ... tried replacing it w 3 others but all appeared to have some problem.    There is a lot of new business near by including a new Krogers &amp; Walgreens under construction.  I expect this property will be upgraded or replaced soon.   Maybe some competition will arrive?!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r118777059-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>118777059</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Just western</t>
+  </si>
+  <si>
+    <t>First there is massive highway construction right next to it and you have to cut through the McDonald's parking lot to get to it.Second, they gave us a smoking room even though we paid for a non-smoking room and didn't have any rooms left to move us into. We didn't check in late either.Third the mini fridge sounded like it had a team of doozers inside of it with tiny little jackhammers, ended up unplugging it to get some sleep.Fourth the AC unit smelled like a camp fire, using it dramatically increased the smell of cigarettes in the room.and finally the breakfast area is pretty much a converted broom closet, so if you sit at a table you get a face full of rear end every time someone goes up to the counter to get food. Also on the way out some other people were complaining that their toilet wouldn't flush the night before and the night shift wouldn't do anything about it. They wanted a refund or something but the day shift staff basically said, no.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>First there is massive highway construction right next to it and you have to cut through the McDonald's parking lot to get to it.Second, they gave us a smoking room even though we paid for a non-smoking room and didn't have any rooms left to move us into. We didn't check in late either.Third the mini fridge sounded like it had a team of doozers inside of it with tiny little jackhammers, ended up unplugging it to get some sleep.Fourth the AC unit smelled like a camp fire, using it dramatically increased the smell of cigarettes in the room.and finally the breakfast area is pretty much a converted broom closet, so if you sit at a table you get a face full of rear end every time someone goes up to the counter to get food. Also on the way out some other people were complaining that their toilet wouldn't flush the night before and the night shift wouldn't do anything about it. They wanted a refund or something but the day shift staff basically said, no.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r101407376-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
+  </si>
+  <si>
+    <t>101407376</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>QUIET, LITTLE PLACE, CLOSE TO EVERYTHING</t>
+  </si>
+  <si>
+    <t>We stayed here friday march 18th till Sunday March 20th 2011, check in is not until 3 but I was able to get in a room @ 8:30 a.m.  the room was clean, the hotel was quiet.  and although the pool was not yet open for the season, we found a spot out back and the kids had a great time.  @ times you were able to hear a little traffic noise, from I 45 but nothing major.  we really enjoyed our stay it was peaceful.  we were unable to try out the free continental breakfast, because none of us are early risers.  none the less we would absoloutley stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>We stayed here friday march 18th till Sunday March 20th 2011, check in is not until 3 but I was able to get in a room @ 8:30 a.m.  the room was clean, the hotel was quiet.  and although the pool was not yet open for the season, we found a spot out back and the kids had a great time.  @ times you were able to hear a little traffic noise, from I 45 but nothing major.  we really enjoyed our stay it was peaceful.  we were unable to try out the free continental breakfast, because none of us are early risers.  none the less we would absoloutley stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56895-d106192-r39966627-Red_Roof_Inn_Conroe_North_Willis-Willis_Texas.html</t>
@@ -2167,7 +3133,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2176,17 +3142,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2230,31 +3190,37 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -2270,48 +3236,58 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2327,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2336,45 +3312,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
         <v>76</v>
       </c>
@@ -2392,7 +3366,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2401,53 +3375,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>82</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2463,34 +3427,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>72</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2501,14 +3465,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2524,48 +3484,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="L8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
         <v>98</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>99</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -2581,62 +3549,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>106</v>
-      </c>
       <c r="O9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
         <v>108</v>
-      </c>
-      <c r="X9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2652,47 +3614,41 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>111</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>112</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>114</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>107</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
         <v>5</v>
       </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2701,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
         <v>116</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>117</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2723,58 +3679,62 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>121</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>122</v>
       </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
         <v>125</v>
-      </c>
-      <c r="X11" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2790,59 +3750,49 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>129</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
         <v>131</v>
       </c>
-      <c r="L12" t="s">
+      <c r="X12" t="s">
         <v>132</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>125</v>
-      </c>
-      <c r="X12" t="s">
-        <v>126</v>
       </c>
       <c r="Y12" t="s">
         <v>133</v>
@@ -2882,31 +3832,41 @@
         <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>139</v>
       </c>
       <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
         <v>140</v>
       </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>141</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>142</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2922,52 +3882,62 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>144</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>146</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>147</v>
       </c>
-      <c r="L14" t="s">
+      <c r="X14" t="s">
         <v>148</v>
       </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="Y14" t="s">
         <v>149</v>
-      </c>
-      <c r="O14" t="s">
-        <v>140</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -2983,35 +3953,31 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
         <v>153</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>157</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
-        <v>149</v>
-      </c>
-      <c r="O15" t="s">
-        <v>73</v>
-      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -3022,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -3044,56 +4010,62 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
         <v>161</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
         <v>163</v>
       </c>
-      <c r="K16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>166</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
@@ -3109,42 +4081,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
         <v>170</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>171</v>
       </c>
-      <c r="J17" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L17" t="s">
-        <v>174</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>166</v>
-      </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -3154,13 +4130,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -3176,7 +4152,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3185,49 +4161,53 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -3243,62 +4223,52 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
         <v>185</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="X19" t="s">
         <v>186</v>
       </c>
-      <c r="J19" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="Y19" t="s">
         <v>187</v>
-      </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>166</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>176</v>
-      </c>
-      <c r="X19" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -3314,40 +4284,40 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
         <v>190</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>191</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>192</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>193</v>
       </c>
-      <c r="L20" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
-      </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
       </c>
@@ -3359,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
         <v>196</v>
-      </c>
-      <c r="X20" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21">
@@ -3381,58 +4351,62 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
         <v>199</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>200</v>
       </c>
-      <c r="J21" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>201</v>
       </c>
-      <c r="L21" t="s">
-        <v>202</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -3448,56 +4422,52 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
         <v>206</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>207</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
         <v>208</v>
       </c>
-      <c r="K22" t="s">
+      <c r="O22" t="s">
         <v>209</v>
-      </c>
-      <c r="L22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>195</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
         <v>211</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>212</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -3513,50 +4483,50 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>214</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>215</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>216</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>217</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>218</v>
       </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>195</v>
-      </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3605,13 +4575,13 @@
         <v>226</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3623,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
         <v>228</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -3645,62 +4615,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>230</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>231</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>232</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>233</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>234</v>
       </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>235</v>
       </c>
-      <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>236</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>237</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -3716,34 +4676,34 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>239</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>240</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>241</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>242</v>
       </c>
-      <c r="L26" t="s">
-        <v>243</v>
-      </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3755,13 +4715,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s">
         <v>245</v>
-      </c>
-      <c r="X26" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="27">
@@ -3777,52 +4737,56 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
         <v>248</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>249</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>250</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>251</v>
       </c>
-      <c r="L27" t="s">
-        <v>252</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s">
-        <v>253</v>
-      </c>
       <c r="O27" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
         <v>254</v>
-      </c>
-      <c r="X27" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="28">
@@ -3838,58 +4802,52 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
         <v>257</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>258</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>259</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>260</v>
       </c>
-      <c r="L28" t="s">
+      <c r="X28" t="s">
         <v>261</v>
       </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>253</v>
-      </c>
-      <c r="O28" t="s">
-        <v>107</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
         <v>262</v>
-      </c>
-      <c r="X28" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="29">
@@ -3905,58 +4863,58 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
         <v>265</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>266</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>267</v>
       </c>
-      <c r="K29" t="s">
-        <v>268</v>
-      </c>
-      <c r="L29" t="s">
-        <v>269</v>
-      </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -3972,59 +4930,55 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
         <v>274</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>275</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
         <v>276</v>
       </c>
-      <c r="K30" t="s">
-        <v>277</v>
-      </c>
-      <c r="L30" t="s">
-        <v>278</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>270</v>
-      </c>
-      <c r="O30" t="s">
-        <v>140</v>
-      </c>
       <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="X30" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s">
         <v>279</v>
@@ -4064,23 +5018,19 @@
         <v>284</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -4092,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
         <v>285</v>
-      </c>
-      <c r="X31" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="32">
@@ -4114,62 +5064,62 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>286</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
         <v>288</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>289</v>
       </c>
-      <c r="J32" t="s">
-        <v>290</v>
-      </c>
-      <c r="K32" t="s">
-        <v>291</v>
-      </c>
-      <c r="L32" t="s">
-        <v>292</v>
-      </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="X32" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -4185,7 +5135,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4194,53 +5144,47 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="Y33" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
@@ -4256,62 +5200,52 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>303</v>
+      </c>
+      <c r="X34" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y34" t="s">
         <v>305</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>306</v>
-      </c>
-      <c r="J34" t="s">
-        <v>307</v>
-      </c>
-      <c r="K34" t="s">
-        <v>308</v>
-      </c>
-      <c r="L34" t="s">
-        <v>309</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>293</v>
-      </c>
-      <c r="O34" t="s">
-        <v>107</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
-      <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
-        <v>310</v>
-      </c>
-      <c r="X34" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="35">
@@ -4327,7 +5261,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4336,32 +5270,28 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>5</v>
       </c>
@@ -4376,13 +5306,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
@@ -4398,7 +5328,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4407,49 +5337,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
@@ -4465,7 +5395,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4474,43 +5404,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
@@ -4526,7 +5460,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4535,49 +5469,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>335</v>
+      </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39">
@@ -4593,7 +5531,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4602,53 +5540,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="X39" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
@@ -4664,7 +5592,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4673,53 +5601,53 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
@@ -4735,7 +5663,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4744,49 +5672,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="O41" t="s">
-        <v>107</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>356</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
       <c r="Y41" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42">
@@ -4802,7 +5724,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4811,49 +5733,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>365</v>
+      </c>
+      <c r="X42" t="s">
+        <v>366</v>
+      </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
@@ -4869,58 +5795,62 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>369</v>
+      </c>
+      <c r="J43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s">
+        <v>371</v>
+      </c>
+      <c r="L43" t="s">
         <v>372</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>373</v>
-      </c>
-      <c r="J43" t="s">
-        <v>374</v>
-      </c>
-      <c r="K43" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" t="s">
-        <v>376</v>
-      </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>373</v>
+      </c>
+      <c r="X43" t="s">
+        <v>374</v>
+      </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
@@ -4936,56 +5866,60 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>377</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>378</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>379</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>380</v>
       </c>
-      <c r="L44" t="s">
-        <v>381</v>
-      </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>373</v>
+      </c>
+      <c r="X44" t="s">
+        <v>374</v>
+      </c>
       <c r="Y44" t="s">
         <v>381</v>
       </c>
@@ -5003,54 +5937,52 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
         <v>383</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>384</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>385</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>386</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>387</v>
       </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>382</v>
-      </c>
       <c r="O45" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>388</v>
+      </c>
+      <c r="X45" t="s">
+        <v>389</v>
+      </c>
       <c r="Y45" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
@@ -5066,7 +5998,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5075,45 +6007,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>396</v>
+      </c>
+      <c r="O46" t="s">
+        <v>163</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>397</v>
+      </c>
+      <c r="X46" t="s">
+        <v>398</v>
+      </c>
       <c r="Y46" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47">
@@ -5129,7 +6059,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5138,49 +6068,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
         <v>396</v>
       </c>
-      <c r="K47" t="s">
-        <v>397</v>
-      </c>
-      <c r="L47" t="s">
-        <v>398</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>399</v>
-      </c>
       <c r="O47" t="s">
-        <v>140</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>405</v>
+      </c>
+      <c r="X47" t="s">
+        <v>406</v>
+      </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
@@ -5196,7 +6126,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5205,37 +6135,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J48" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="O48" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5244,10 +6174,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>415</v>
+      </c>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49">
@@ -5263,7 +6197,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5272,49 +6206,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="K49" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>423</v>
+      </c>
+      <c r="X49" t="s">
+        <v>424</v>
+      </c>
       <c r="Y49" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50">
@@ -5330,7 +6258,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5339,53 +6267,49 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
@@ -5401,7 +6325,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5410,49 +6334,53 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
+        <v>438</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>422</v>
       </c>
-      <c r="K51" t="s">
-        <v>423</v>
-      </c>
-      <c r="L51" t="s">
-        <v>424</v>
-      </c>
-      <c r="M51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N51" t="s">
-        <v>416</v>
-      </c>
       <c r="O51" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>431</v>
+      </c>
+      <c r="X51" t="s">
+        <v>432</v>
+      </c>
       <c r="Y51" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
@@ -5468,7 +6396,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5477,34 +6405,34 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="J52" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K52" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5517,13 +6445,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="X52" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
@@ -5539,7 +6467,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5548,53 +6476,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="X53" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Y53" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
@@ -5610,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5619,25 +6537,25 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="O54" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5659,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="X54" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
@@ -5681,7 +6599,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5690,28 +6608,28 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="J55" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="K55" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="O55" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="P55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
         <v>5</v>
@@ -5730,13 +6648,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="X55" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="Y55" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
@@ -5752,7 +6670,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5761,49 +6679,53 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="J56" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="K56" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="O56" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>476</v>
+      </c>
+      <c r="X56" t="s">
+        <v>477</v>
+      </c>
       <c r="Y56" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57">
@@ -5819,7 +6741,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5828,28 +6750,28 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="J57" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
         <v>5</v>
@@ -5858,7 +6780,7 @@
         <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5867,10 +6789,14 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>484</v>
+      </c>
+      <c r="X57" t="s">
+        <v>485</v>
+      </c>
       <c r="Y57" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58">
@@ -5886,7 +6812,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5895,49 +6821,39 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="J58" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="K58" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" t="s">
-        <v>464</v>
-      </c>
-      <c r="O58" t="s">
-        <v>107</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>492</v>
+      </c>
+      <c r="X58" t="s">
+        <v>493</v>
+      </c>
       <c r="Y58" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59">
@@ -5953,7 +6869,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5962,49 +6878,53 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="J59" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="K59" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="L59" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="O59" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>501</v>
+      </c>
+      <c r="X59" t="s">
+        <v>502</v>
+      </c>
       <c r="Y59" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60">
@@ -6020,7 +6940,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6029,25 +6949,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="J60" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="K60" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6056,7 +6976,7 @@
         <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -6068,10 +6988,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>509</v>
+      </c>
+      <c r="X60" t="s">
+        <v>510</v>
+      </c>
       <c r="Y60" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61">
@@ -6087,7 +7011,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6096,41 +7020,41 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="J61" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="K61" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="L61" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="O61" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6138,7 +7062,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62">
@@ -6154,7 +7078,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6163,45 +7087,43 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="J62" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
-      </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3</v>
-      </c>
-      <c r="R62" t="n">
-        <v>4</v>
-      </c>
-      <c r="S62" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>522</v>
+      </c>
+      <c r="O62" t="s">
+        <v>163</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>3</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>523</v>
+      </c>
+      <c r="X62" t="s">
+        <v>524</v>
+      </c>
       <c r="Y62" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63">
@@ -6217,7 +7139,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6226,45 +7148,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="J63" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="K63" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="L63" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>531</v>
+      </c>
+      <c r="O63" t="s">
+        <v>163</v>
+      </c>
       <c r="P63" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>532</v>
+      </c>
+      <c r="X63" t="s">
+        <v>533</v>
+      </c>
       <c r="Y63" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64">
@@ -6280,7 +7206,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6289,37 +7215,37 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="J64" t="s">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="K64" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="L64" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
         <v>2</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3</v>
-      </c>
-      <c r="R64" t="n">
-        <v>2</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
@@ -6328,10 +7254,14 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>532</v>
+      </c>
+      <c r="X64" t="s">
+        <v>533</v>
+      </c>
       <c r="Y64" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
@@ -6347,7 +7277,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6356,41 +7286,41 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="J65" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="K65" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="L65" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
         <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6398,7 +7328,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66">
@@ -6414,7 +7344,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6423,49 +7353,53 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="J66" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="K66" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="L66" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="O66" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>553</v>
+      </c>
+      <c r="X66" t="s">
+        <v>554</v>
+      </c>
       <c r="Y66" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67">
@@ -6481,7 +7415,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6490,49 +7424,53 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="J67" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="K67" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="L67" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="O67" t="s">
         <v>53</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S67" t="n">
         <v>4</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>562</v>
+      </c>
+      <c r="X67" t="s">
+        <v>563</v>
+      </c>
       <c r="Y67" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68">
@@ -6548,7 +7486,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6557,37 +7495,37 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="J68" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="K68" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="L68" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="O68" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="P68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
         <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
@@ -6596,10 +7534,14 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>571</v>
+      </c>
+      <c r="X68" t="s">
+        <v>572</v>
+      </c>
       <c r="Y68" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69">
@@ -6615,7 +7557,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6624,35 +7566,3180 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="J69" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="K69" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="L69" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
-      </c>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
-      <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
-      <c r="S69" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>579</v>
+      </c>
+      <c r="O69" t="s">
+        <v>163</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
       <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>538</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>580</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>581</v>
+      </c>
+      <c r="J70" t="s">
+        <v>582</v>
+      </c>
+      <c r="K70" t="s">
+        <v>583</v>
+      </c>
+      <c r="L70" t="s">
+        <v>584</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>579</v>
+      </c>
+      <c r="O70" t="s">
+        <v>163</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>585</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>586</v>
+      </c>
+      <c r="J71" t="s">
+        <v>587</v>
+      </c>
+      <c r="K71" t="s">
+        <v>588</v>
+      </c>
+      <c r="L71" t="s">
+        <v>589</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>579</v>
+      </c>
+      <c r="O71" t="s">
+        <v>163</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>591</v>
+      </c>
+      <c r="J72" t="s">
+        <v>592</v>
+      </c>
+      <c r="K72" t="s">
+        <v>593</v>
+      </c>
+      <c r="L72" t="s">
+        <v>594</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>579</v>
+      </c>
+      <c r="O72" t="s">
+        <v>163</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>595</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>596</v>
+      </c>
+      <c r="J73" t="s">
+        <v>597</v>
+      </c>
+      <c r="K73" t="s">
+        <v>598</v>
+      </c>
+      <c r="L73" t="s">
+        <v>599</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>600</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>601</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>602</v>
+      </c>
+      <c r="J74" t="s">
+        <v>603</v>
+      </c>
+      <c r="K74" t="s">
+        <v>604</v>
+      </c>
+      <c r="L74" t="s">
+        <v>605</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>606</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>607</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>608</v>
+      </c>
+      <c r="J75" t="s">
+        <v>603</v>
+      </c>
+      <c r="K75" t="s">
+        <v>609</v>
+      </c>
+      <c r="L75" t="s">
+        <v>610</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>606</v>
+      </c>
+      <c r="O75" t="s">
+        <v>209</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>611</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>612</v>
+      </c>
+      <c r="J76" t="s">
+        <v>613</v>
+      </c>
+      <c r="K76" t="s">
+        <v>614</v>
+      </c>
+      <c r="L76" t="s">
+        <v>615</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>606</v>
+      </c>
+      <c r="O76" t="s">
+        <v>209</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>617</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>618</v>
+      </c>
+      <c r="J77" t="s">
+        <v>619</v>
+      </c>
+      <c r="K77" t="s">
+        <v>620</v>
+      </c>
+      <c r="L77" t="s">
+        <v>621</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>622</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>623</v>
+      </c>
+      <c r="J78" t="s">
+        <v>624</v>
+      </c>
+      <c r="K78" t="s">
+        <v>625</v>
+      </c>
+      <c r="L78" t="s">
+        <v>626</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>606</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>627</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>628</v>
+      </c>
+      <c r="J79" t="s">
+        <v>629</v>
+      </c>
+      <c r="K79" t="s">
+        <v>630</v>
+      </c>
+      <c r="L79" t="s">
+        <v>631</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>632</v>
+      </c>
+      <c r="O79" t="s">
+        <v>163</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>633</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>634</v>
+      </c>
+      <c r="J80" t="s">
+        <v>635</v>
+      </c>
+      <c r="K80" t="s">
+        <v>636</v>
+      </c>
+      <c r="L80" t="s">
+        <v>637</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>638</v>
+      </c>
+      <c r="O80" t="s">
+        <v>209</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>639</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>640</v>
+      </c>
+      <c r="J81" t="s">
+        <v>641</v>
+      </c>
+      <c r="K81" t="s">
+        <v>642</v>
+      </c>
+      <c r="L81" t="s">
+        <v>643</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>638</v>
+      </c>
+      <c r="O81" t="s">
+        <v>276</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>644</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>645</v>
+      </c>
+      <c r="J82" t="s">
+        <v>646</v>
+      </c>
+      <c r="K82" t="s">
+        <v>647</v>
+      </c>
+      <c r="L82" t="s">
+        <v>648</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>649</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>650</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>651</v>
+      </c>
+      <c r="J83" t="s">
+        <v>652</v>
+      </c>
+      <c r="K83" t="s">
+        <v>653</v>
+      </c>
+      <c r="L83" t="s">
+        <v>654</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>655</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>657</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>658</v>
+      </c>
+      <c r="J84" t="s">
+        <v>659</v>
+      </c>
+      <c r="K84" t="s">
+        <v>660</v>
+      </c>
+      <c r="L84" t="s">
+        <v>661</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>649</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>662</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>663</v>
+      </c>
+      <c r="J85" t="s">
+        <v>664</v>
+      </c>
+      <c r="K85" t="s">
+        <v>665</v>
+      </c>
+      <c r="L85" t="s">
+        <v>666</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>655</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>667</v>
+      </c>
+      <c r="X85" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>670</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>671</v>
+      </c>
+      <c r="J86" t="s">
+        <v>672</v>
+      </c>
+      <c r="K86" t="s">
+        <v>673</v>
+      </c>
+      <c r="L86" t="s">
+        <v>674</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>655</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>675</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>676</v>
+      </c>
+      <c r="J87" t="s">
+        <v>677</v>
+      </c>
+      <c r="K87" t="s">
+        <v>678</v>
+      </c>
+      <c r="L87" t="s">
+        <v>679</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>680</v>
+      </c>
+      <c r="O87" t="s">
+        <v>209</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>681</v>
+      </c>
+      <c r="X87" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>683</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>684</v>
+      </c>
+      <c r="J88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K88" t="s">
+        <v>316</v>
+      </c>
+      <c r="L88" t="s">
+        <v>685</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>655</v>
+      </c>
+      <c r="O88" t="s">
+        <v>209</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>667</v>
+      </c>
+      <c r="X88" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>687</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>688</v>
+      </c>
+      <c r="J89" t="s">
+        <v>689</v>
+      </c>
+      <c r="K89" t="s">
+        <v>690</v>
+      </c>
+      <c r="L89" t="s">
+        <v>691</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>680</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>692</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>693</v>
+      </c>
+      <c r="J90" t="s">
+        <v>694</v>
+      </c>
+      <c r="K90" t="s">
+        <v>695</v>
+      </c>
+      <c r="L90" t="s">
+        <v>696</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>680</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>697</v>
+      </c>
+      <c r="X90" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>700</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>701</v>
+      </c>
+      <c r="J91" t="s">
+        <v>702</v>
+      </c>
+      <c r="K91" t="s">
+        <v>703</v>
+      </c>
+      <c r="L91" t="s">
+        <v>704</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>680</v>
+      </c>
+      <c r="O91" t="s">
+        <v>163</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>697</v>
+      </c>
+      <c r="X91" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>706</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>707</v>
+      </c>
+      <c r="J92" t="s">
+        <v>708</v>
+      </c>
+      <c r="K92" t="s">
+        <v>709</v>
+      </c>
+      <c r="L92" t="s">
+        <v>710</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>711</v>
+      </c>
+      <c r="O92" t="s">
+        <v>209</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>697</v>
+      </c>
+      <c r="X92" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>713</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>714</v>
+      </c>
+      <c r="J93" t="s">
+        <v>715</v>
+      </c>
+      <c r="K93" t="s">
+        <v>716</v>
+      </c>
+      <c r="L93" t="s">
+        <v>717</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>711</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>697</v>
+      </c>
+      <c r="X93" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>719</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>720</v>
+      </c>
+      <c r="J94" t="s">
+        <v>721</v>
+      </c>
+      <c r="K94" t="s">
+        <v>722</v>
+      </c>
+      <c r="L94" t="s">
+        <v>723</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>711</v>
+      </c>
+      <c r="O94" t="s">
+        <v>163</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>697</v>
+      </c>
+      <c r="X94" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>725</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>726</v>
+      </c>
+      <c r="J95" t="s">
+        <v>727</v>
+      </c>
+      <c r="K95" t="s">
+        <v>728</v>
+      </c>
+      <c r="L95" t="s">
+        <v>729</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>711</v>
+      </c>
+      <c r="O95" t="s">
+        <v>209</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>730</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>731</v>
+      </c>
+      <c r="J96" t="s">
+        <v>732</v>
+      </c>
+      <c r="K96" t="s">
+        <v>733</v>
+      </c>
+      <c r="L96" t="s">
+        <v>734</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>735</v>
+      </c>
+      <c r="O96" t="s">
+        <v>163</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>736</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>737</v>
+      </c>
+      <c r="J97" t="s">
+        <v>738</v>
+      </c>
+      <c r="K97" t="s">
+        <v>739</v>
+      </c>
+      <c r="L97" t="s">
+        <v>740</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>735</v>
+      </c>
+      <c r="O97" t="s">
+        <v>163</v>
+      </c>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>741</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>742</v>
+      </c>
+      <c r="J98" t="s">
+        <v>743</v>
+      </c>
+      <c r="K98" t="s">
+        <v>744</v>
+      </c>
+      <c r="L98" t="s">
+        <v>745</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>746</v>
+      </c>
+      <c r="O98" t="s">
+        <v>209</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>748</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>749</v>
+      </c>
+      <c r="J99" t="s">
+        <v>750</v>
+      </c>
+      <c r="K99" t="s">
+        <v>751</v>
+      </c>
+      <c r="L99" t="s">
+        <v>752</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>753</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>755</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>756</v>
+      </c>
+      <c r="J100" t="s">
+        <v>757</v>
+      </c>
+      <c r="K100" t="s">
+        <v>758</v>
+      </c>
+      <c r="L100" t="s">
+        <v>759</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>753</v>
+      </c>
+      <c r="O100" t="s">
+        <v>209</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>760</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>761</v>
+      </c>
+      <c r="J101" t="s">
+        <v>762</v>
+      </c>
+      <c r="K101" t="s">
+        <v>763</v>
+      </c>
+      <c r="L101" t="s">
+        <v>764</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>765</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>767</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>768</v>
+      </c>
+      <c r="J102" t="s">
+        <v>769</v>
+      </c>
+      <c r="K102" t="s">
+        <v>770</v>
+      </c>
+      <c r="L102" t="s">
+        <v>771</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>772</v>
+      </c>
+      <c r="O102" t="s">
+        <v>163</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>773</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>774</v>
+      </c>
+      <c r="J103" t="s">
+        <v>775</v>
+      </c>
+      <c r="K103" t="s">
+        <v>776</v>
+      </c>
+      <c r="L103" t="s">
+        <v>777</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>778</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>779</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>780</v>
+      </c>
+      <c r="J104" t="s">
+        <v>781</v>
+      </c>
+      <c r="K104" t="s">
+        <v>782</v>
+      </c>
+      <c r="L104" t="s">
+        <v>783</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>784</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>786</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>787</v>
+      </c>
+      <c r="J105" t="s">
+        <v>788</v>
+      </c>
+      <c r="K105" t="s">
+        <v>789</v>
+      </c>
+      <c r="L105" t="s">
+        <v>790</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>791</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>792</v>
+      </c>
+      <c r="J106" t="s">
+        <v>793</v>
+      </c>
+      <c r="K106" t="s">
+        <v>794</v>
+      </c>
+      <c r="L106" t="s">
+        <v>795</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>797</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>798</v>
+      </c>
+      <c r="J107" t="s">
+        <v>799</v>
+      </c>
+      <c r="K107" t="s">
+        <v>800</v>
+      </c>
+      <c r="L107" t="s">
+        <v>801</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>802</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>803</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>804</v>
+      </c>
+      <c r="J108" t="s">
+        <v>805</v>
+      </c>
+      <c r="K108" t="s">
+        <v>806</v>
+      </c>
+      <c r="L108" t="s">
+        <v>807</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>802</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>808</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>809</v>
+      </c>
+      <c r="J109" t="s">
+        <v>810</v>
+      </c>
+      <c r="K109" t="s">
+        <v>811</v>
+      </c>
+      <c r="L109" t="s">
+        <v>812</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>802</v>
+      </c>
+      <c r="O109" t="s">
+        <v>209</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>814</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>815</v>
+      </c>
+      <c r="J110" t="s">
+        <v>816</v>
+      </c>
+      <c r="K110" t="s">
+        <v>817</v>
+      </c>
+      <c r="L110" t="s">
+        <v>818</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>819</v>
+      </c>
+      <c r="O110" t="s">
+        <v>60</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>821</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>822</v>
+      </c>
+      <c r="J111" t="s">
+        <v>823</v>
+      </c>
+      <c r="K111" t="s">
+        <v>824</v>
+      </c>
+      <c r="L111" t="s">
+        <v>825</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s">
+        <v>826</v>
+      </c>
+      <c r="O111" t="s">
+        <v>163</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>828</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>829</v>
+      </c>
+      <c r="J112" t="s">
+        <v>830</v>
+      </c>
+      <c r="K112" t="s">
+        <v>831</v>
+      </c>
+      <c r="L112" t="s">
+        <v>832</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>833</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>835</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>836</v>
+      </c>
+      <c r="J113" t="s">
+        <v>837</v>
+      </c>
+      <c r="K113" t="s">
+        <v>838</v>
+      </c>
+      <c r="L113" t="s">
+        <v>839</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>840</v>
+      </c>
+      <c r="O113" t="s">
+        <v>60</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>842</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>843</v>
+      </c>
+      <c r="J114" t="s">
+        <v>844</v>
+      </c>
+      <c r="K114" t="s">
+        <v>845</v>
+      </c>
+      <c r="L114" t="s">
+        <v>846</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>847</v>
+      </c>
+      <c r="O114" t="s">
+        <v>60</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>849</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>850</v>
+      </c>
+      <c r="J115" t="s">
+        <v>851</v>
+      </c>
+      <c r="K115" t="s">
+        <v>852</v>
+      </c>
+      <c r="L115" t="s">
+        <v>853</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>854</v>
+      </c>
+      <c r="O115" t="s">
+        <v>209</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>36337</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>855</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>856</v>
+      </c>
+      <c r="J116" t="s">
+        <v>857</v>
+      </c>
+      <c r="K116" t="s">
+        <v>858</v>
+      </c>
+      <c r="L116" t="s">
+        <v>859</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="s"/>
+      <c r="O116" t="s"/>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="s"/>
+      <c r="S116" t="s"/>
+      <c r="T116" t="s"/>
+      <c r="U116" t="s"/>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
